--- a/fastapi-backend/air_passenger_monthly_2035.xlsx
+++ b/fastapi-backend/air_passenger_monthly_2035.xlsx
@@ -1,31 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research RTDA Project Bergamo\Project 1 Demand forecasting\Final datasets and codes 15_3_2024\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EFA64A-0027-4ECB-B1E1-13601A4296A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Passenger</t>
+  </si>
+  <si>
+    <t>Predicted</t>
+  </si>
+  <si>
+    <t>Forecasted</t>
+  </si>
   <si>
     <t>80%_lower</t>
   </si>
@@ -38,32 +39,24 @@
   <si>
     <t>95%_upper</t>
   </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Passegger</t>
-  </si>
-  <si>
-    <t>Predicted</t>
-  </si>
-  <si>
-    <t>Forecasted</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -71,19 +64,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -91,28 +421,314 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -161,7 +777,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -194,26 +810,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -246,23 +845,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -433,85 +1015,85 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6666666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.8833333333333" customWidth="1"/>
+    <col min="3" max="3" width="14.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="2">
         <v>36526</v>
       </c>
       <c r="B2">
-        <v>5.8782909999999999</v>
+        <v>5.878291</v>
       </c>
       <c r="C2">
-        <v>6.0256080073460563</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6.02560800734606</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="2">
         <v>36557</v>
       </c>
       <c r="B3">
-        <v>5.7969739999999996</v>
+        <v>5.796974</v>
       </c>
       <c r="C3">
-        <v>5.9445728854502624</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5.94457288545026</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="2">
         <v>36586</v>
       </c>
       <c r="B4">
-        <v>7.1889269999999996</v>
+        <v>7.188927</v>
       </c>
       <c r="C4">
-        <v>7.3352623120798093</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7.33526231207981</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>36617</v>
       </c>
@@ -519,98 +1101,98 @@
         <v>7.793679</v>
       </c>
       <c r="C5">
-        <v>7.9394657546519172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7.93946575465192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="2">
         <v>36647</v>
       </c>
       <c r="B6">
-        <v>8.3239359999999998</v>
+        <v>8.323936</v>
       </c>
       <c r="C6">
-        <v>8.4693023225539434</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>8.46930232255394</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="2">
         <v>36678</v>
       </c>
       <c r="B7">
-        <v>8.6664499999999993</v>
+        <v>8.66645</v>
       </c>
       <c r="C7">
-        <v>8.8116372571486963</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>8.8116372571487</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="2">
         <v>36708</v>
       </c>
       <c r="B8">
-        <v>9.4309980000000007</v>
+        <v>9.430998</v>
       </c>
       <c r="C8">
-        <v>9.575637778037672</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9.57563777803767</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="2">
         <v>36739</v>
       </c>
       <c r="B9">
-        <v>9.4873759999999994</v>
+        <v>9.487376</v>
       </c>
       <c r="C9">
-        <v>9.6321665027286976</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9.6321665027287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="2">
         <v>36770</v>
       </c>
       <c r="B10">
-        <v>9.2006720000000008</v>
+        <v>9.200672</v>
       </c>
       <c r="C10">
-        <v>9.3459463364734212</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9.34594633647342</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="2">
         <v>36800</v>
       </c>
       <c r="B11">
-        <v>8.1380800000000004</v>
+        <v>8.13808</v>
       </c>
       <c r="C11">
-        <v>8.284604079381598</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>8.2846040793816</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="2">
         <v>36831</v>
       </c>
       <c r="B12">
-        <v>6.2782960000000001</v>
+        <v>6.278296</v>
       </c>
       <c r="C12">
-        <v>6.4268896424142543</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6.42688964241425</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="2">
         <v>36861</v>
       </c>
       <c r="B13">
-        <v>6.2579399999999996</v>
+        <v>6.25794</v>
       </c>
       <c r="C13">
-        <v>6.4067864118847231</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6.40678641188472</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="2">
         <v>36892</v>
       </c>
@@ -618,340 +1200,340 @@
         <v>6.115901</v>
       </c>
       <c r="C14">
-        <v>6.4479426941626636</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6.44794269416266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="2">
         <v>36923</v>
       </c>
       <c r="B15">
-        <v>5.9970619999999997</v>
+        <v>5.997062</v>
       </c>
       <c r="C15">
-        <v>6.1001242595441658</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6.10012425954417</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="2">
         <v>36951</v>
       </c>
       <c r="B16">
-        <v>7.3738469999999996</v>
+        <v>7.373847</v>
       </c>
       <c r="C16">
-        <v>7.4851936976325408</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.48519369763254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
         <v>36982</v>
       </c>
       <c r="B17">
-        <v>8.0446919999999995</v>
+        <v>8.044692</v>
       </c>
       <c r="C17">
-        <v>8.1094012513825078</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.10940125138251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>37012</v>
       </c>
       <c r="B18">
-        <v>8.3319089999999996</v>
+        <v>8.331909</v>
       </c>
       <c r="C18">
-        <v>8.6102764900674345</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.61027649006743</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="2">
         <v>37043</v>
       </c>
       <c r="B19">
-        <v>9.1140699999999999</v>
+        <v>9.11407</v>
       </c>
       <c r="C19">
-        <v>8.7814049527145919</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.78140495271459</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>37073</v>
       </c>
       <c r="B20">
-        <v>9.6233129999999996</v>
+        <v>9.623313</v>
       </c>
       <c r="C20">
-        <v>9.8641211002029774</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.86412110020298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="2">
         <v>37104</v>
       </c>
       <c r="B21">
-        <v>9.7251460000000005</v>
+        <v>9.725146</v>
       </c>
       <c r="C21">
-        <v>9.6637754198487364</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.66377541984874</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="2">
         <v>37135</v>
       </c>
       <c r="B22">
-        <v>8.8895110000000006</v>
+        <v>8.889511</v>
       </c>
       <c r="C22">
-        <v>9.3599758032907125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.35997580329071</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="2">
         <v>37165</v>
       </c>
       <c r="B23">
-        <v>6.6654559999999998</v>
+        <v>6.665456</v>
       </c>
       <c r="C23">
-        <v>7.6183443909820534</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.61834439098205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="2">
         <v>37196</v>
       </c>
       <c r="B24">
-        <v>5.0985620000000003</v>
+        <v>5.098562</v>
       </c>
       <c r="C24">
-        <v>4.9096598944097209</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.90965989440972</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="2">
         <v>37226</v>
       </c>
       <c r="B25">
-        <v>5.2295980000000002</v>
+        <v>5.229598</v>
       </c>
       <c r="C25">
-        <v>5.3168246027072978</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.3168246027073</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="2">
         <v>37257</v>
       </c>
       <c r="B26">
-        <v>5.4097989999999996</v>
+        <v>5.409799</v>
       </c>
       <c r="C26">
-        <v>5.3199091721217702</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.31990917212177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="2">
         <v>37288</v>
       </c>
       <c r="B27">
-        <v>5.7015890000000002</v>
+        <v>5.701589</v>
       </c>
       <c r="C27">
-        <v>5.4791240249772821</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.47912402497728</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="2">
         <v>37316</v>
       </c>
       <c r="B28">
-        <v>7.1290909999999998</v>
+        <v>7.129091</v>
       </c>
       <c r="C28">
-        <v>7.2308392722854293</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.23083927228543</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="2">
         <v>37347</v>
       </c>
       <c r="B29">
-        <v>7.5235640000000004</v>
+        <v>7.523564</v>
       </c>
       <c r="C29">
-        <v>7.8621616070598748</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.86216160705987</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="2">
         <v>37377</v>
       </c>
       <c r="B30">
-        <v>8.0416910000000001</v>
+        <v>8.041691</v>
       </c>
       <c r="C30">
-        <v>8.0485538400945913</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.04855384009459</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="2">
         <v>37408</v>
       </c>
       <c r="B31">
-        <v>8.5076409999999996</v>
+        <v>8.507641</v>
       </c>
       <c r="C31">
-        <v>8.8235724352498721</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.82357243524987</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="2">
         <v>37438</v>
       </c>
       <c r="B32">
-        <v>9.0714550000000003</v>
+        <v>9.071455</v>
       </c>
       <c r="C32">
-        <v>9.2968214538994953</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.2968214538995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="2">
         <v>37469</v>
       </c>
       <c r="B33">
-        <v>9.6545260000000006</v>
+        <v>9.654526</v>
       </c>
       <c r="C33">
-        <v>9.4076956889462693</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.40769568894627</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="2">
         <v>37500</v>
       </c>
       <c r="B34">
-        <v>9.2079880000000003</v>
+        <v>9.207988</v>
       </c>
       <c r="C34">
-        <v>9.2692917716170857</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.26929177161709</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="2">
         <v>37530</v>
       </c>
       <c r="B35">
-        <v>8.2170480000000001</v>
+        <v>8.217048</v>
       </c>
       <c r="C35">
-        <v>7.6765346837208881</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.67653468372089</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="2">
         <v>37561</v>
       </c>
       <c r="B36">
-        <v>6.3836820000000003</v>
+        <v>6.383682</v>
       </c>
       <c r="C36">
-        <v>6.6758569919835349</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6.67585699198353</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="2">
         <v>37591</v>
       </c>
       <c r="B37">
-        <v>6.4444119999999998</v>
+        <v>6.444412</v>
       </c>
       <c r="C37">
-        <v>6.4948283253390358</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6.49482832533904</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="2">
         <v>37622</v>
       </c>
       <c r="B38">
-        <v>6.5075779999999996</v>
+        <v>6.507578</v>
       </c>
       <c r="C38">
-        <v>6.5500754982042659</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6.55007549820427</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="2">
         <v>37653</v>
       </c>
       <c r="B39">
-        <v>6.4233719999999996</v>
+        <v>6.423372</v>
       </c>
       <c r="C39">
-        <v>6.6283866078477187</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6.62838660784772</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="2">
         <v>37681</v>
       </c>
       <c r="B40">
-        <v>7.5322630000000004</v>
+        <v>7.532263</v>
       </c>
       <c r="C40">
-        <v>7.8806700700306873</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.88067007003069</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="2">
         <v>37712</v>
       </c>
       <c r="B41">
-        <v>7.7656520000000002</v>
+        <v>7.765652</v>
       </c>
       <c r="C41">
-        <v>8.1465500749288875</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.14655007492889</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="2">
         <v>37742</v>
       </c>
       <c r="B42">
-        <v>8.3845229999999997</v>
+        <v>8.384523</v>
       </c>
       <c r="C42">
-        <v>8.4030262198396599</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.40302621983966</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="2">
         <v>37773</v>
       </c>
       <c r="B43">
-        <v>9.2899449999999995</v>
+        <v>9.289945</v>
       </c>
       <c r="C43">
-        <v>9.1140731237080743</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.11407312370807</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="2">
         <v>37803</v>
       </c>
       <c r="B44">
-        <v>10.044563999999999</v>
+        <v>10.044564</v>
       </c>
       <c r="C44">
-        <v>10.14323231718406</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10.1432323171841</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="2">
         <v>37834</v>
       </c>
@@ -959,10 +1541,10 @@
         <v>10.956591</v>
       </c>
       <c r="C45">
-        <v>10.54621746494567</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10.5462174649457</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="2">
         <v>37865</v>
       </c>
@@ -970,32 +1552,32 @@
         <v>10.020721</v>
       </c>
       <c r="C46">
-        <v>10.58038997582978</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10.5803899758298</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="2">
         <v>37895</v>
       </c>
       <c r="B47">
-        <v>9.1644819999999996</v>
+        <v>9.164482</v>
       </c>
       <c r="C47">
-        <v>8.7734984373483353</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.77349843734834</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="2">
         <v>37926</v>
       </c>
       <c r="B48">
-        <v>7.3624010000000002</v>
+        <v>7.362401</v>
       </c>
       <c r="C48">
-        <v>7.4942580508090328</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.49425805080903</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="2">
         <v>37956</v>
       </c>
@@ -1003,76 +1585,76 @@
         <v>7.421672</v>
       </c>
       <c r="C49">
-        <v>7.4934385091527238</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.49343850915272</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="2">
         <v>37987</v>
       </c>
       <c r="B50">
-        <v>6.8264079999999998</v>
+        <v>6.826408</v>
       </c>
       <c r="C50">
-        <v>7.5224387045375076</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.52243870453751</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="2">
         <v>38018</v>
       </c>
       <c r="B51">
-        <v>6.9063160000000003</v>
+        <v>6.906316</v>
       </c>
       <c r="C51">
-        <v>6.9208740620786919</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6.92087406207869</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="2">
         <v>38047</v>
       </c>
       <c r="B52">
-        <v>8.0894300000000001</v>
+        <v>8.08943</v>
       </c>
       <c r="C52">
-        <v>8.4833439909750847</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.48334399097508</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="2">
         <v>38078</v>
       </c>
       <c r="B53">
-        <v>8.8898679999999999</v>
+        <v>8.889868</v>
       </c>
       <c r="C53">
-        <v>8.8911536018759492</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.89115360187595</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="2">
         <v>38108</v>
       </c>
       <c r="B54">
-        <v>9.4318430000000006</v>
+        <v>9.431843</v>
       </c>
       <c r="C54">
-        <v>9.6865118741526892</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.68651187415269</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="2">
         <v>38139</v>
       </c>
       <c r="B55">
-        <v>9.9245359999999998</v>
+        <v>9.924536</v>
       </c>
       <c r="C55">
-        <v>10.229924804262611</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10.2299248042626</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="2">
         <v>38169</v>
       </c>
@@ -1080,10 +1662,10 @@
         <v>11.108278</v>
       </c>
       <c r="C56">
-        <v>10.64869489002179</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10.6486948900218</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="2">
         <v>38200</v>
       </c>
@@ -1091,32 +1673,32 @@
         <v>11.579281</v>
       </c>
       <c r="C57">
-        <v>11.774718285780819</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11.7747182857808</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="2">
         <v>38231</v>
       </c>
       <c r="B58">
-        <v>10.580830000000001</v>
+        <v>10.58083</v>
       </c>
       <c r="C58">
-        <v>11.077386699118531</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11.0773866991185</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="2">
         <v>38261</v>
       </c>
       <c r="B59">
-        <v>9.4515340000000005</v>
+        <v>9.451534</v>
       </c>
       <c r="C59">
-        <v>9.6609391256177855</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.66093912561779</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="2">
         <v>38292</v>
       </c>
@@ -1124,65 +1706,65 @@
         <v>7.50251</v>
       </c>
       <c r="C60">
-        <v>7.8734891806759766</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.87348918067598</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" s="2">
         <v>38322</v>
       </c>
       <c r="B61">
-        <v>7.4875970000000001</v>
+        <v>7.487597</v>
       </c>
       <c r="C61">
-        <v>7.6333418230299159</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.63334182302992</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="2">
         <v>38353</v>
       </c>
       <c r="B62">
-        <v>7.3293470000000003</v>
+        <v>7.329347</v>
       </c>
       <c r="C62">
-        <v>7.2452721130337689</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.24527211303377</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="2">
         <v>38384</v>
       </c>
       <c r="B63">
-        <v>6.8991389999999999</v>
+        <v>6.899139</v>
       </c>
       <c r="C63">
-        <v>7.3863806198585458</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.38638061985855</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" s="2">
         <v>38412</v>
       </c>
       <c r="B64">
-        <v>8.7191659999999995</v>
+        <v>8.719166</v>
       </c>
       <c r="C64">
-        <v>8.2693580623700065</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.26935806237001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="2">
         <v>38443</v>
       </c>
       <c r="B65">
-        <v>9.2030820000000002</v>
+        <v>9.203082</v>
       </c>
       <c r="C65">
-        <v>9.5709524438611595</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.57095244386116</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="2">
         <v>38473</v>
       </c>
@@ -1190,10 +1772,10 @@
         <v>10.029805</v>
       </c>
       <c r="C66">
-        <v>9.8455106049065986</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.8455106049066</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="2">
         <v>38504</v>
       </c>
@@ -1201,10 +1783,10 @@
         <v>10.950818</v>
       </c>
       <c r="C67">
-        <v>10.780150606266011</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10.780150606266</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="2">
         <v>38534</v>
       </c>
@@ -1212,10 +1794,10 @@
         <v>11.888292</v>
       </c>
       <c r="C68">
-        <v>11.941209924797951</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11.941209924798</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" s="2">
         <v>38565</v>
       </c>
@@ -1223,10 +1805,10 @@
         <v>11.745436</v>
       </c>
       <c r="C69">
-        <v>12.44861505918106</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+        <v>12.4486150591811</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="2">
         <v>38596</v>
       </c>
@@ -1237,73 +1819,73 @@
         <v>11.2161431775354</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3">
       <c r="A71" s="2">
         <v>38626</v>
       </c>
       <c r="B71">
-        <v>9.8301379999999998</v>
+        <v>9.830138</v>
       </c>
       <c r="C71">
-        <v>9.990558211845002</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.990558211845</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="2">
         <v>38657</v>
       </c>
       <c r="B72">
-        <v>7.6723670000000004</v>
+        <v>7.672367</v>
       </c>
       <c r="C72">
-        <v>8.2295275074711274</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.22952750747113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" s="2">
         <v>38687</v>
       </c>
       <c r="B73">
-        <v>8.1635779999999993</v>
+        <v>8.163578</v>
       </c>
       <c r="C73">
-        <v>7.7909414960022332</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.79094149600223</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" s="2">
         <v>38718</v>
       </c>
       <c r="B74">
-        <v>7.7882860000000003</v>
+        <v>7.788286</v>
       </c>
       <c r="C74">
-        <v>8.0904131521669438</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.09041315216694</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" s="2">
         <v>38749</v>
       </c>
       <c r="B75">
-        <v>7.5683569999999998</v>
+        <v>7.568357</v>
       </c>
       <c r="C75">
-        <v>7.7218484246116184</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.72184842461162</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" s="2">
         <v>38777</v>
       </c>
       <c r="B76">
-        <v>9.0096329999999991</v>
+        <v>9.009633</v>
       </c>
       <c r="C76">
-        <v>9.2773344805585189</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.27733448055852</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="2">
         <v>38808</v>
       </c>
@@ -1311,21 +1893,21 @@
         <v>10.548387</v>
       </c>
       <c r="C77">
-        <v>9.9072378127737526</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.90723781277375</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" s="2">
         <v>38838</v>
       </c>
       <c r="B78">
-        <v>11.084277999999999</v>
+        <v>11.084278</v>
       </c>
       <c r="C78">
-        <v>11.484208994930089</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11.4842089949301</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" s="2">
         <v>38869</v>
       </c>
@@ -1333,10 +1915,10 @@
         <v>11.741795</v>
       </c>
       <c r="C79">
-        <v>11.876147630034261</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11.8761476300343</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" s="2">
         <v>38899</v>
       </c>
@@ -1347,18 +1929,18 @@
         <v>12.5442020829681</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3">
       <c r="A81" s="2">
         <v>38930</v>
       </c>
       <c r="B81">
-        <v>12.888807999999999</v>
+        <v>12.888808</v>
       </c>
       <c r="C81">
-        <v>13.267144509669491</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13.2671445096695</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" s="2">
         <v>38961</v>
       </c>
@@ -1366,65 +1948,65 @@
         <v>11.996202</v>
       </c>
       <c r="C82">
-        <v>12.33147722569384</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+        <v>12.3314772256938</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" s="2">
         <v>38991</v>
       </c>
       <c r="B83">
-        <v>10.774706999999999</v>
+        <v>10.774707</v>
       </c>
       <c r="C83">
-        <v>11.07941454524064</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11.0794145452406</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="2">
         <v>39022</v>
       </c>
       <c r="B84">
-        <v>8.5676140000000007</v>
+        <v>8.567614</v>
       </c>
       <c r="C84">
-        <v>9.1013903353244032</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.1013903353244</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="2">
         <v>39052</v>
       </c>
       <c r="B85">
-        <v>8.8777349999999995</v>
+        <v>8.877735</v>
       </c>
       <c r="C85">
-        <v>8.9161018065618691</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.91610180656187</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" s="2">
         <v>39083</v>
       </c>
       <c r="B86">
-        <v>8.6063500000000008</v>
+        <v>8.60635</v>
       </c>
       <c r="C86">
-        <v>8.8228869843747919</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.82288698437479</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" s="2">
         <v>39114</v>
       </c>
       <c r="B87">
-        <v>8.2554719999999993</v>
+        <v>8.255472</v>
       </c>
       <c r="C87">
-        <v>8.6443559541360564</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.64435595413606</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" s="2">
         <v>39142</v>
       </c>
@@ -1432,10 +2014,10 @@
         <v>10.151899</v>
       </c>
       <c r="C88">
-        <v>9.7661079831674407</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.76610798316744</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" s="2">
         <v>39173</v>
       </c>
@@ -1446,7 +2028,7 @@
         <v>11.2136592983402</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3">
       <c r="A90" s="2">
         <v>39203</v>
       </c>
@@ -1454,10 +2036,10 @@
         <v>11.804693</v>
       </c>
       <c r="C90">
-        <v>12.178970891733099</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+        <v>12.1789708917331</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" s="2">
         <v>39234</v>
       </c>
@@ -1465,10 +2047,10 @@
         <v>12.819276</v>
       </c>
       <c r="C91">
-        <v>12.61806288334552</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+        <v>12.6180628833455</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" s="2">
         <v>39264</v>
       </c>
@@ -1476,10 +2058,10 @@
         <v>14.192302</v>
       </c>
       <c r="C92">
-        <v>13.955849294361281</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13.9558492943613</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" s="2">
         <v>39295</v>
       </c>
@@ -1487,21 +2069,21 @@
         <v>14.306575</v>
       </c>
       <c r="C93">
-        <v>14.66861955012984</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14.6686195501298</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" s="2">
         <v>39326</v>
       </c>
       <c r="B94">
-        <v>13.360042999999999</v>
+        <v>13.360043</v>
       </c>
       <c r="C94">
-        <v>13.61747434570187</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13.6174743457019</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" s="2">
         <v>39356</v>
       </c>
@@ -1509,54 +2091,54 @@
         <v>12.073653</v>
       </c>
       <c r="C95">
-        <v>12.22266382172716</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+        <v>12.2226638217272</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" s="2">
         <v>39387</v>
       </c>
       <c r="B96">
-        <v>9.5982219999999998</v>
+        <v>9.598222</v>
       </c>
       <c r="C96">
-        <v>10.26268545710324</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10.2626854571032</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" s="2">
         <v>39417</v>
       </c>
       <c r="B97">
-        <v>9.5865360000000006</v>
+        <v>9.586536</v>
       </c>
       <c r="C97">
-        <v>9.8997055216973227</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.89970552169732</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" s="2">
         <v>39448</v>
       </c>
       <c r="B98">
-        <v>9.1407910000000001</v>
+        <v>9.140791</v>
       </c>
       <c r="C98">
-        <v>9.6418513396581371</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.64185133965814</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" s="2">
         <v>39479</v>
       </c>
       <c r="B99">
-        <v>9.0091239999999999</v>
+        <v>9.009124</v>
       </c>
       <c r="C99">
-        <v>9.1984670472543595</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.19846704725436</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" s="2">
         <v>39508</v>
       </c>
@@ -1564,10 +2146,10 @@
         <v>10.873383</v>
       </c>
       <c r="C100">
-        <v>10.762751860373401</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10.7627518603734</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" s="2">
         <v>39539</v>
       </c>
@@ -1575,10 +2157,10 @@
         <v>11.008815</v>
       </c>
       <c r="C101">
-        <v>11.89268883763155</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11.8926888376315</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" s="2">
         <v>39569</v>
       </c>
@@ -1586,10 +2168,10 @@
         <v>12.187108</v>
       </c>
       <c r="C102">
-        <v>11.514148460196211</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11.5141484601962</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" s="2">
         <v>39600</v>
       </c>
@@ -1597,10 +2179,10 @@
         <v>12.927769</v>
       </c>
       <c r="C103">
-        <v>12.987599694409781</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+        <v>12.9875996944098</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" s="2">
         <v>39630</v>
       </c>
@@ -1608,10 +2190,10 @@
         <v>13.853441</v>
       </c>
       <c r="C104">
-        <v>13.70250111471699</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13.702501114717</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" s="2">
         <v>39661</v>
       </c>
@@ -1619,65 +2201,65 @@
         <v>14.339985</v>
       </c>
       <c r="C105">
-        <v>13.87803775395348</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13.8780377539535</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" s="2">
         <v>39692</v>
       </c>
       <c r="B106">
-        <v>12.614644999999999</v>
+        <v>12.614645</v>
       </c>
       <c r="C106">
-        <v>13.20354464073951</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13.2035446407395</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" s="2">
         <v>39722</v>
       </c>
       <c r="B107">
-        <v>11.048958000000001</v>
+        <v>11.048958</v>
       </c>
       <c r="C107">
-        <v>10.93651337198661</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10.9365133719866</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" s="2">
         <v>39753</v>
       </c>
       <c r="B108">
-        <v>8.3997689999999992</v>
+        <v>8.399769</v>
       </c>
       <c r="C108">
-        <v>8.6442183375185682</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.64421833751857</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" s="2">
         <v>39783</v>
       </c>
       <c r="B109">
-        <v>8.3958030000000008</v>
+        <v>8.395803</v>
       </c>
       <c r="C109">
-        <v>8.1663184420639805</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.16631844206398</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" s="2">
         <v>39814</v>
       </c>
       <c r="B110">
-        <v>7.7913800000000002</v>
+        <v>7.79138</v>
       </c>
       <c r="C110">
-        <v>7.8797124647237586</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.87971246472376</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111" s="2">
         <v>39845</v>
       </c>
@@ -1685,54 +2267,54 @@
         <v>7.79148</v>
       </c>
       <c r="C111">
-        <v>7.4252977093466681</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.42529770934667</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112" s="2">
         <v>39873</v>
       </c>
       <c r="B112">
-        <v>9.5645900000000008</v>
+        <v>9.56459</v>
       </c>
       <c r="C112">
-        <v>9.1965697517602187</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.19656975176022</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113" s="2">
         <v>39904</v>
       </c>
       <c r="B113">
-        <v>11.165532000000001</v>
+        <v>11.165532</v>
       </c>
       <c r="C113">
-        <v>9.987307546721814</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.98730754672181</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114" s="2">
         <v>39934</v>
       </c>
       <c r="B114">
-        <v>11.692871999999999</v>
+        <v>11.692872</v>
       </c>
       <c r="C114">
-        <v>11.89924910066703</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11.899249100667</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" s="2">
         <v>39965</v>
       </c>
       <c r="B115">
-        <v>12.224614000000001</v>
+        <v>12.224614</v>
       </c>
       <c r="C115">
-        <v>12.32386567070022</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+        <v>12.3238656707002</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116" s="2">
         <v>39995</v>
       </c>
@@ -1740,10 +2322,10 @@
         <v>13.772739</v>
       </c>
       <c r="C116">
-        <v>13.203612965626959</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13.203612965627</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117" s="2">
         <v>40026</v>
       </c>
@@ -1751,10 +2333,10 @@
         <v>14.292106</v>
       </c>
       <c r="C117">
-        <v>14.18673427842867</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14.1867342784287</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118" s="2">
         <v>40057</v>
       </c>
@@ -1765,62 +2347,62 @@
         <v>13.1537871806132</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3">
       <c r="A119" s="2">
         <v>40087</v>
       </c>
       <c r="B119">
-        <v>11.411001000000001</v>
+        <v>11.411001</v>
       </c>
       <c r="C119">
-        <v>11.23821954771909</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11.2382195477191</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120" s="2">
         <v>40118</v>
       </c>
       <c r="B120">
-        <v>9.0685389999999995</v>
+        <v>9.068539</v>
       </c>
       <c r="C120">
-        <v>9.2197708458164254</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.21977084581643</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121" s="2">
         <v>40148</v>
       </c>
       <c r="B121">
-        <v>9.2715239999999994</v>
+        <v>9.271524</v>
       </c>
       <c r="C121">
-        <v>9.1807502737818183</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.18075027378182</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" s="2">
         <v>40179</v>
       </c>
       <c r="B122">
-        <v>8.6920999999999999</v>
+        <v>8.6921</v>
       </c>
       <c r="C122">
-        <v>8.9737121033675695</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.97371210336757</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123" s="2">
         <v>40210</v>
       </c>
       <c r="B123">
-        <v>8.3994339999999994</v>
+        <v>8.399434</v>
       </c>
       <c r="C123">
-        <v>8.606945609235126</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.60694560923513</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" s="2">
         <v>40238</v>
       </c>
@@ -1828,10 +2410,10 @@
         <v>10.372128</v>
       </c>
       <c r="C124">
-        <v>10.06884448854426</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10.0688444885443</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125" s="2">
         <v>40269</v>
       </c>
@@ -1839,10 +2421,10 @@
         <v>10.285155</v>
       </c>
       <c r="C125">
-        <v>11.525877607167731</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11.5258776071677</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126" s="2">
         <v>40299</v>
       </c>
@@ -1850,10 +2432,10 @@
         <v>12.426218</v>
       </c>
       <c r="C126">
-        <v>10.79275412379401</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10.792754123794</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127" s="2">
         <v>40330</v>
       </c>
@@ -1864,7 +2446,7 @@
         <v>13.2546249726078</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3">
       <c r="A128" s="2">
         <v>40360</v>
       </c>
@@ -1872,87 +2454,87 @@
         <v>14.732262</v>
       </c>
       <c r="C128">
-        <v>14.001583813254481</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14.0015838132545</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129" s="2">
         <v>40391</v>
       </c>
       <c r="B129">
-        <v>15.385547000000001</v>
+        <v>15.385547</v>
       </c>
       <c r="C129">
-        <v>15.00702404719261</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15.0070240471926</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" s="2">
         <v>40422</v>
       </c>
       <c r="B130">
-        <v>13.758616999999999</v>
+        <v>13.758617</v>
       </c>
       <c r="C130">
-        <v>14.15040537179063</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14.1504053717906</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131" s="2">
         <v>40452</v>
       </c>
       <c r="B131">
-        <v>12.719518000000001</v>
+        <v>12.719518</v>
       </c>
       <c r="C131">
-        <v>12.44341028751062</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+        <v>12.4434102875106</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" s="2">
         <v>40483</v>
       </c>
       <c r="B132">
-        <v>10.011521999999999</v>
+        <v>10.011522</v>
       </c>
       <c r="C132">
-        <v>10.599565480312769</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10.5995654803128</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" s="2">
         <v>40513</v>
       </c>
       <c r="B133">
-        <v>9.9216490000000004</v>
+        <v>9.921649</v>
       </c>
       <c r="C133">
-        <v>10.28320502934932</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10.2832050293493</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134" s="2">
         <v>40544</v>
       </c>
       <c r="B134">
-        <v>9.6317710000000005</v>
+        <v>9.631771</v>
       </c>
       <c r="C134">
-        <v>9.7926928454329722</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.79269284543297</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135" s="2">
         <v>40575</v>
       </c>
       <c r="B135">
-        <v>8.8040409999999998</v>
+        <v>8.804041</v>
       </c>
       <c r="C135">
-        <v>9.4922067804976091</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.49220678049761</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136" s="2">
         <v>40603</v>
       </c>
@@ -1960,32 +2542,32 @@
         <v>10.97414</v>
       </c>
       <c r="C136">
-        <v>10.34144842862764</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10.3414484286276</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
       <c r="A137" s="2">
         <v>40634</v>
       </c>
       <c r="B137">
-        <v>12.309526999999999</v>
+        <v>12.309527</v>
       </c>
       <c r="C137">
-        <v>11.28439493917913</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11.2843949391791</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" s="2">
         <v>40664</v>
       </c>
       <c r="B138">
-        <v>13.131809000000001</v>
+        <v>13.131809</v>
       </c>
       <c r="C138">
-        <v>13.214876536796069</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13.2148765367961</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139" s="2">
         <v>40695</v>
       </c>
@@ -1993,43 +2575,43 @@
         <v>14.011583</v>
       </c>
       <c r="C139">
-        <v>13.646767491127051</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13.6467674911271</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140" s="2">
         <v>40725</v>
       </c>
       <c r="B140">
-        <v>15.837332999999999</v>
+        <v>15.837333</v>
       </c>
       <c r="C140">
-        <v>15.258933085620169</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15.2589330856202</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141" s="2">
         <v>40756</v>
       </c>
       <c r="B141">
-        <v>16.031898000000002</v>
+        <v>16.031898</v>
       </c>
       <c r="C141">
-        <v>16.078879923592861</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+        <v>16.0788799235929</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
       <c r="A142" s="2">
         <v>40787</v>
       </c>
       <c r="B142">
-        <v>14.645015000000001</v>
+        <v>14.645015</v>
       </c>
       <c r="C142">
-        <v>14.460265596042319</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14.4602655960423</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
       <c r="A143" s="2">
         <v>40817</v>
       </c>
@@ -2037,10 +2619,10 @@
         <v>13.161889</v>
       </c>
       <c r="C143">
-        <v>13.08036443837425</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13.0803644383743</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
       <c r="A144" s="2">
         <v>40848</v>
       </c>
@@ -2051,62 +2633,62 @@
         <v>10.4035006452961</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3">
       <c r="A145" s="2">
         <v>40878</v>
       </c>
       <c r="B145">
-        <v>10.191473999999999</v>
+        <v>10.191474</v>
       </c>
       <c r="C145">
-        <v>9.7696767558822248</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.76967675588222</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
       <c r="A146" s="2">
         <v>40909</v>
       </c>
       <c r="B146">
-        <v>9.5899809999999999</v>
+        <v>9.589981</v>
       </c>
       <c r="C146">
-        <v>9.5832968658138693</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.58329686581387</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
       <c r="A147" s="2">
         <v>40940</v>
       </c>
       <c r="B147">
-        <v>8.6222940000000001</v>
+        <v>8.622294</v>
       </c>
       <c r="C147">
-        <v>8.908081161664521</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.90808116166452</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
       <c r="A148" s="2">
         <v>40969</v>
       </c>
       <c r="B148">
-        <v>10.818716999999999</v>
+        <v>10.818717</v>
       </c>
       <c r="C148">
-        <v>10.145915907715111</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10.1459159077151</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
       <c r="A149" s="2">
         <v>41000</v>
       </c>
       <c r="B149">
-        <v>12.609754000000001</v>
+        <v>12.609754</v>
       </c>
       <c r="C149">
-        <v>11.59018096036875</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11.5901809603687</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
       <c r="A150" s="2">
         <v>41030</v>
       </c>
@@ -2114,10 +2696,10 @@
         <v>13.201762</v>
       </c>
       <c r="C150">
-        <v>13.21151999808716</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13.2115199980872</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
       <c r="A151" s="2">
         <v>41061</v>
       </c>
@@ -2125,10 +2707,10 @@
         <v>14.115641</v>
       </c>
       <c r="C151">
-        <v>13.71312314486101</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13.713123144861</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
       <c r="A152" s="2">
         <v>41091</v>
       </c>
@@ -2136,32 +2718,32 @@
         <v>15.88885</v>
       </c>
       <c r="C152">
-        <v>15.345984621166791</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15.3459846211668</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
       <c r="A153" s="2">
         <v>41122</v>
       </c>
       <c r="B153">
-        <v>16.015073999999998</v>
+        <v>16.015074</v>
       </c>
       <c r="C153">
-        <v>15.990721475040999</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15.990721475041</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
       <c r="A154" s="2">
         <v>41153</v>
       </c>
       <c r="B154">
-        <v>14.615792000000001</v>
+        <v>14.615792</v>
       </c>
       <c r="C154">
-        <v>14.47897702573316</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14.4789770257332</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
       <c r="A155" s="2">
         <v>41183</v>
       </c>
@@ -2169,87 +2751,87 @@
         <v>12.539225</v>
       </c>
       <c r="C155">
-        <v>13.09175138843759</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13.0917513884376</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
       <c r="A156" s="2">
         <v>41214</v>
       </c>
       <c r="B156">
-        <v>9.4296729999999993</v>
+        <v>9.429673</v>
       </c>
       <c r="C156">
-        <v>9.6592608523656995</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.6592608523657</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
       <c r="A157" s="2">
         <v>41244</v>
       </c>
       <c r="B157">
-        <v>9.4385940000000002</v>
+        <v>9.438594</v>
       </c>
       <c r="C157">
-        <v>9.3191840945298097</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.31918409452981</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
       <c r="A158" s="2">
         <v>41275</v>
       </c>
       <c r="B158">
-        <v>8.7538669999999996</v>
+        <v>8.753867</v>
       </c>
       <c r="C158">
-        <v>8.7207775169728272</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.72077751697283</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
       <c r="A159" s="2">
         <v>41306</v>
       </c>
       <c r="B159">
-        <v>8.2966270000000009</v>
+        <v>8.296627</v>
       </c>
       <c r="C159">
-        <v>8.1861828035200777</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.18618280352008</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
       <c r="A160" s="2">
         <v>41334</v>
       </c>
       <c r="B160">
-        <v>10.391534999999999</v>
+        <v>10.391535</v>
       </c>
       <c r="C160">
-        <v>10.25774194348697</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10.257741943487</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
       <c r="A161" s="2">
         <v>41365</v>
       </c>
       <c r="B161">
-        <v>11.963120999999999</v>
+        <v>11.963121</v>
       </c>
       <c r="C161">
-        <v>11.691692496742521</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11.6916924967425</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
       <c r="A162" s="2">
         <v>41395</v>
       </c>
       <c r="B162">
-        <v>13.044344000000001</v>
+        <v>13.044344</v>
       </c>
       <c r="C162">
-        <v>12.92318966056123</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+        <v>12.9231896605612</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
       <c r="A163" s="2">
         <v>41426</v>
       </c>
@@ -2257,43 +2839,43 @@
         <v>14.20074</v>
       </c>
       <c r="C163">
-        <v>13.89911019408342</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13.8991101940834</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
       <c r="A164" s="2">
         <v>41456</v>
       </c>
       <c r="B164">
-        <v>15.588782999999999</v>
+        <v>15.588783</v>
       </c>
       <c r="C164">
-        <v>15.71945982596514</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15.7194598259651</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
       <c r="A165" s="2">
         <v>41487</v>
       </c>
       <c r="B165">
-        <v>15.702567999999999</v>
+        <v>15.702568</v>
       </c>
       <c r="C165">
-        <v>15.826985379218179</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15.8269853792182</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
       <c r="A166" s="2">
         <v>41518</v>
       </c>
       <c r="B166">
-        <v>14.456977999999999</v>
+        <v>14.456978</v>
       </c>
       <c r="C166">
-        <v>14.25448031526261</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14.2544803152626</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
       <c r="A167" s="2">
         <v>41548</v>
       </c>
@@ -2301,54 +2883,54 @@
         <v>12.561674</v>
       </c>
       <c r="C167">
-        <v>12.91555893507536</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+        <v>12.9155589350754</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
       <c r="A168" s="2">
         <v>41579</v>
       </c>
       <c r="B168">
-        <v>9.5626259999999998</v>
+        <v>9.562626</v>
       </c>
       <c r="C168">
-        <v>9.8069147285192546</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.80691472851925</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
       <c r="A169" s="2">
         <v>41609</v>
       </c>
       <c r="B169">
-        <v>9.6290829999999996</v>
+        <v>9.629083</v>
       </c>
       <c r="C169">
-        <v>9.6569213233256264</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.65692132332563</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
       <c r="A170" s="2">
         <v>41640</v>
       </c>
       <c r="B170">
-        <v>9.0377399999999994</v>
+        <v>9.03774</v>
       </c>
       <c r="C170">
-        <v>9.172291163204882</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.17229116320488</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
       <c r="A171" s="2">
         <v>41671</v>
       </c>
       <c r="B171">
-        <v>8.5152190000000001</v>
+        <v>8.515219</v>
       </c>
       <c r="C171">
-        <v>8.6582043409876235</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.65820434098762</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
       <c r="A172" s="2">
         <v>41699</v>
       </c>
@@ -2356,43 +2938,43 @@
         <v>10.527113</v>
       </c>
       <c r="C172">
-        <v>10.45665096878219</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10.4566509687822</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
       <c r="A173" s="2">
         <v>41730</v>
       </c>
       <c r="B173">
-        <v>12.548209999999999</v>
+        <v>12.54821</v>
       </c>
       <c r="C173">
-        <v>11.591194269534389</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11.5911942695344</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
       <c r="A174" s="2">
         <v>41760</v>
       </c>
       <c r="B174">
-        <v>13.485210800000001</v>
+        <v>13.4852108</v>
       </c>
       <c r="C174">
-        <v>13.54324284652782</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13.5432428465278</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
       <c r="A175" s="2">
         <v>41791</v>
       </c>
       <c r="B175">
-        <v>14.777822199999999</v>
+        <v>14.7778222</v>
       </c>
       <c r="C175">
-        <v>14.18680687036251</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14.1868068703625</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
       <c r="A176" s="2">
         <v>41821</v>
       </c>
@@ -2400,21 +2982,21 @@
         <v>16.224643</v>
       </c>
       <c r="C176">
-        <v>16.13187905908001</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+        <v>16.13187905908</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
       <c r="A177" s="2">
         <v>41852</v>
       </c>
       <c r="B177">
-        <v>16.757442000000001</v>
+        <v>16.757442</v>
       </c>
       <c r="C177">
-        <v>16.325911347345901</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+        <v>16.3259113473459</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
       <c r="A178" s="2">
         <v>41883</v>
       </c>
@@ -2422,109 +3004,109 @@
         <v>15.091612</v>
       </c>
       <c r="C178">
-        <v>15.216559507758911</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15.2165595077589</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
       <c r="A179" s="2">
         <v>41913</v>
       </c>
       <c r="B179">
-        <v>13.192106000000001</v>
+        <v>13.192106</v>
       </c>
       <c r="C179">
-        <v>13.41527591711049</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13.4152759171105</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
       <c r="A180" s="2">
         <v>41944</v>
       </c>
       <c r="B180">
-        <v>10.149169000000001</v>
+        <v>10.149169</v>
       </c>
       <c r="C180">
-        <v>10.24661688044425</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10.2466168804443</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
       <c r="A181" s="2">
         <v>41974</v>
       </c>
       <c r="B181">
-        <v>10.199298000000001</v>
+        <v>10.199298</v>
       </c>
       <c r="C181">
-        <v>10.091601418221961</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10.091601418222</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
       <c r="A182" s="2">
         <v>42005</v>
       </c>
       <c r="B182">
-        <v>9.4906869999999994</v>
+        <v>9.490687</v>
       </c>
       <c r="C182">
-        <v>9.5346746746385023</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.5346746746385</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
       <c r="A183" s="2">
         <v>42036</v>
       </c>
       <c r="B183">
-        <v>9.1181370000000008</v>
+        <v>9.118137</v>
       </c>
       <c r="C183">
-        <v>8.8762562164726777</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.87625621647268</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
       <c r="A184" s="2">
         <v>42064</v>
       </c>
       <c r="B184">
-        <v>11.132213999999999</v>
+        <v>11.132214</v>
       </c>
       <c r="C184">
-        <v>11.050471999504641</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11.0504719995046</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
       <c r="A185" s="2">
         <v>42095</v>
       </c>
       <c r="B185">
-        <v>13.084161999999999</v>
+        <v>13.084162</v>
       </c>
       <c r="C185">
-        <v>12.39176815523545</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+        <v>12.3917681552355</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
       <c r="A186" s="2">
         <v>42125</v>
       </c>
       <c r="B186">
-        <v>14.067985999999999</v>
+        <v>14.067986</v>
       </c>
       <c r="C186">
-        <v>14.023777635611481</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14.0237776356115</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
       <c r="A187" s="2">
         <v>42156</v>
       </c>
       <c r="B187">
-        <v>15.171412999999999</v>
+        <v>15.171413</v>
       </c>
       <c r="C187">
-        <v>14.865478100188289</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14.8654781001883</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
       <c r="A188" s="2">
         <v>42186</v>
       </c>
@@ -2532,21 +3114,21 @@
         <v>16.869235</v>
       </c>
       <c r="C188">
-        <v>16.61031021519781</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+        <v>16.6103102151978</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
       <c r="A189" s="2">
         <v>42217</v>
       </c>
       <c r="B189">
-        <v>17.161401999999999</v>
+        <v>17.161402</v>
       </c>
       <c r="C189">
-        <v>17.087415069596911</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+        <v>17.0874150695969</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
       <c r="A190" s="2">
         <v>42248</v>
       </c>
@@ -2554,10 +3136,10 @@
         <v>15.774096</v>
       </c>
       <c r="C190">
-        <v>15.398853099451159</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15.3988530994512</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
       <c r="A191" s="2">
         <v>42278</v>
       </c>
@@ -2565,43 +3147,43 @@
         <v>14.090501</v>
       </c>
       <c r="C191">
-        <v>13.977223041225781</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13.9772230412258</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
       <c r="A192" s="2">
         <v>42309</v>
       </c>
       <c r="B192">
-        <v>10.607863999999999</v>
+        <v>10.607864</v>
       </c>
       <c r="C192">
-        <v>11.07384369647764</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11.0738436964776</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
       <c r="A193" s="2">
         <v>42339</v>
       </c>
       <c r="B193">
-        <v>10.502302999999999</v>
+        <v>10.502303</v>
       </c>
       <c r="C193">
-        <v>10.634308078757069</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10.6343080787571</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
       <c r="A194" s="2">
         <v>42370</v>
       </c>
       <c r="B194">
-        <v>9.9391580000000008</v>
+        <v>9.939158</v>
       </c>
       <c r="C194">
-        <v>10.04720882430458</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10.0472088243046</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
       <c r="A195" s="2">
         <v>42401</v>
       </c>
@@ -2609,10 +3191,10 @@
         <v>10.039939</v>
       </c>
       <c r="C195">
-        <v>9.4711152737993682</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.47111527379937</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
       <c r="A196" s="2">
         <v>42430</v>
       </c>
@@ -2623,73 +3205,73 @@
         <v>12.0522515406537</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3">
       <c r="A197" s="2">
         <v>42461</v>
       </c>
       <c r="B197">
-        <v>13.133459999999999</v>
+        <v>13.13346</v>
       </c>
       <c r="C197">
-        <v>13.00124234009307</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13.0012423400931</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
       <c r="A198" s="2">
         <v>42491</v>
       </c>
       <c r="B198">
-        <v>14.735189999999999</v>
+        <v>14.73519</v>
       </c>
       <c r="C198">
-        <v>14.01827178853314</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14.0182717885331</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
       <c r="A199" s="2">
         <v>42522</v>
       </c>
       <c r="B199">
-        <v>15.676368999999999</v>
+        <v>15.676369</v>
       </c>
       <c r="C199">
-        <v>15.678964699153919</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15.6789646991539</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
       <c r="A200" s="2">
         <v>42552</v>
       </c>
       <c r="B200">
-        <v>17.764538000000002</v>
+        <v>17.764538</v>
       </c>
       <c r="C200">
-        <v>17.332597076094149</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+        <v>17.3325970760941</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
       <c r="A201" s="2">
         <v>42583</v>
       </c>
       <c r="B201">
-        <v>17.718043999999999</v>
+        <v>17.718044</v>
       </c>
       <c r="C201">
-        <v>18.052895532480498</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18.0528955324805</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
       <c r="A202" s="2">
         <v>42614</v>
       </c>
       <c r="B202">
-        <v>16.319900000000001</v>
+        <v>16.3199</v>
       </c>
       <c r="C202">
-        <v>16.082901866198458</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+        <v>16.0829018661985</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
       <c r="A203" s="2">
         <v>42644</v>
       </c>
@@ -2697,10 +3279,10 @@
         <v>14.505633</v>
       </c>
       <c r="C203">
-        <v>14.57933340070759</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14.5793334007076</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
       <c r="A204" s="2">
         <v>42675</v>
       </c>
@@ -2708,10 +3290,10 @@
         <v>11.237981</v>
       </c>
       <c r="C204">
-        <v>11.242325768628261</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11.2423257686283</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
       <c r="A205" s="2">
         <v>42705</v>
       </c>
@@ -2719,10 +3301,10 @@
         <v>11.586484</v>
       </c>
       <c r="C205">
-        <v>11.10133371631346</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11.1013337163135</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
       <c r="A206" s="2">
         <v>42736</v>
       </c>
@@ -2730,10 +3312,10 @@
         <v>10.801871</v>
       </c>
       <c r="C206">
-        <v>10.87961138290523</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10.8796113829052</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
       <c r="A207" s="2">
         <v>42767</v>
       </c>
@@ -2741,10 +3323,10 @@
         <v>10.229481</v>
       </c>
       <c r="C207">
-        <v>10.286840798528679</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10.2868407985287</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
       <c r="A208" s="2">
         <v>42795</v>
       </c>
@@ -2752,10 +3334,10 @@
         <v>12.376623</v>
       </c>
       <c r="C208">
-        <v>12.188302173139119</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+        <v>12.1883021731391</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
       <c r="A209" s="2">
         <v>42826</v>
       </c>
@@ -2763,10 +3345,10 @@
         <v>14.522632</v>
       </c>
       <c r="C209">
-        <v>13.820447043105499</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13.8204470431055</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
       <c r="A210" s="2">
         <v>42856</v>
       </c>
@@ -2774,43 +3356,43 @@
         <v>15.622484</v>
       </c>
       <c r="C210">
-        <v>15.692053298752469</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15.6920532987525</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
       <c r="A211" s="2">
         <v>42887</v>
       </c>
       <c r="B211">
-        <v>16.972560999999999</v>
+        <v>16.972561</v>
       </c>
       <c r="C211">
-        <v>16.369548676130972</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+        <v>16.369548676131</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
       <c r="A212" s="2">
         <v>42917</v>
       </c>
       <c r="B212">
-        <v>19.110993000000001</v>
+        <v>19.110993</v>
       </c>
       <c r="C212">
-        <v>18.52863292926634</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18.5286329292663</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
       <c r="A213" s="2">
         <v>42948</v>
       </c>
       <c r="B213">
-        <v>18.880220000000001</v>
+        <v>18.88022</v>
       </c>
       <c r="C213">
-        <v>19.177613075917652</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+        <v>19.1776130759177</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
       <c r="A214" s="2">
         <v>42979</v>
       </c>
@@ -2818,21 +3400,21 @@
         <v>17.570643</v>
       </c>
       <c r="C214">
-        <v>17.27754221275142</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+        <v>17.2775422127514</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
       <c r="A215" s="2">
         <v>43009</v>
       </c>
       <c r="B215">
-        <v>15.494483000000001</v>
+        <v>15.494483</v>
       </c>
       <c r="C215">
-        <v>15.946706161340011</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15.94670616134</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
       <c r="A216" s="2">
         <v>43040</v>
       </c>
@@ -2840,32 +3422,32 @@
         <v>11.816336</v>
       </c>
       <c r="C216">
-        <v>12.313067111387809</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+        <v>12.3130671113878</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
       <c r="A217" s="2">
         <v>43070</v>
       </c>
       <c r="B217">
-        <v>11.942638000000001</v>
+        <v>11.942638</v>
       </c>
       <c r="C217">
-        <v>11.835706483050821</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11.8357064830508</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
       <c r="A218" s="2">
         <v>43101</v>
       </c>
       <c r="B218">
-        <v>11.406715999999999</v>
+        <v>11.406716</v>
       </c>
       <c r="C218">
-        <v>11.149722183170081</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11.1497221831701</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
       <c r="A219" s="2">
         <v>43132</v>
       </c>
@@ -2873,54 +3455,54 @@
         <v>10.925077</v>
       </c>
       <c r="C219">
-        <v>10.73389181429101</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10.733891814291</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
       <c r="A220" s="2">
         <v>43160</v>
       </c>
       <c r="B220">
-        <v>13.275444999999999</v>
+        <v>13.275445</v>
       </c>
       <c r="C220">
-        <v>12.892036346275461</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+        <v>12.8920363462755</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
       <c r="A221" s="2">
         <v>43191</v>
       </c>
       <c r="B221">
-        <v>15.365963000000001</v>
+        <v>15.365963</v>
       </c>
       <c r="C221">
-        <v>14.87569048402028</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14.8756904840203</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
       <c r="A222" s="2">
         <v>43221</v>
       </c>
       <c r="B222">
-        <v>16.467860999999999</v>
+        <v>16.467861</v>
       </c>
       <c r="C222">
-        <v>16.263403344107211</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+        <v>16.2634033441072</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
       <c r="A223" s="2">
         <v>43252</v>
       </c>
       <c r="B223">
-        <v>17.878990999999999</v>
+        <v>17.878991</v>
       </c>
       <c r="C223">
-        <v>17.334728961279861</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+        <v>17.3347289612799</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
       <c r="A224" s="2">
         <v>43282</v>
       </c>
@@ -2928,10 +3510,10 @@
         <v>19.757365</v>
       </c>
       <c r="C224">
-        <v>19.465938196675449</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+        <v>19.4659381966754</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
       <c r="A225" s="2">
         <v>43313</v>
       </c>
@@ -2939,21 +3521,21 @@
         <v>19.723336</v>
       </c>
       <c r="C225">
-        <v>19.583069429784821</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+        <v>19.5830694297848</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
       <c r="A226" s="2">
         <v>43344</v>
       </c>
       <c r="B226">
-        <v>18.507808000000001</v>
+        <v>18.507808</v>
       </c>
       <c r="C226">
-        <v>17.918323735000008</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+        <v>17.918323735</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
       <c r="A227" s="2">
         <v>43374</v>
       </c>
@@ -2961,10 +3543,10 @@
         <v>16.530877</v>
       </c>
       <c r="C227">
-        <v>16.332577946976301</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+        <v>16.3325779469763</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
       <c r="A228" s="2">
         <v>43405</v>
       </c>
@@ -2972,32 +3554,32 @@
         <v>12.870716</v>
       </c>
       <c r="C228">
-        <v>12.83777407572224</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+        <v>12.8377740757222</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
       <c r="A229" s="2">
         <v>43435</v>
       </c>
       <c r="B229">
-        <v>12.909174999999999</v>
+        <v>12.909175</v>
       </c>
       <c r="C229">
-        <v>12.562592358042259</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+        <v>12.5625923580423</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
       <c r="A230" s="2">
         <v>43466</v>
       </c>
       <c r="B230">
-        <v>11.967496000000001</v>
+        <v>11.967496</v>
       </c>
       <c r="C230">
-        <v>11.953439347518581</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11.9534393475186</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
       <c r="A231" s="2">
         <v>43497</v>
       </c>
@@ -3005,10 +3587,10 @@
         <v>11.551769</v>
       </c>
       <c r="C231">
-        <v>11.124925980519929</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11.1249259805199</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
       <c r="A232" s="2">
         <v>43525</v>
       </c>
@@ -3016,32 +3598,32 @@
         <v>13.988037</v>
       </c>
       <c r="C232">
-        <v>13.426339703964979</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13.426339703965</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
       <c r="A233" s="2">
         <v>43556</v>
       </c>
       <c r="B233">
-        <v>16.090917999999999</v>
+        <v>16.090918</v>
       </c>
       <c r="C233">
-        <v>15.529640521686581</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15.5296405216866</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
       <c r="A234" s="2">
         <v>43586</v>
       </c>
       <c r="B234">
-        <v>17.096526000000001</v>
+        <v>17.096526</v>
       </c>
       <c r="C234">
-        <v>16.887398227392541</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+        <v>16.8873982273925</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
       <c r="A235" s="2">
         <v>43617</v>
       </c>
@@ -3049,54 +3631,54 @@
         <v>18.892135</v>
       </c>
       <c r="C235">
-        <v>17.889804979564619</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+        <v>17.8898049795646</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
       <c r="A236" s="2">
         <v>43647</v>
       </c>
       <c r="B236">
-        <v>20.458169999999999</v>
+        <v>20.45817</v>
       </c>
       <c r="C236">
-        <v>20.368354828185261</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+        <v>20.3683548281853</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
       <c r="A237" s="2">
         <v>43678</v>
       </c>
       <c r="B237">
-        <v>20.473880999999999</v>
+        <v>20.473881</v>
       </c>
       <c r="C237">
-        <v>20.232139225732091</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+        <v>20.2321392257321</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
       <c r="A238" s="2">
         <v>43709</v>
       </c>
       <c r="B238">
-        <v>18.953993000000001</v>
+        <v>18.953993</v>
       </c>
       <c r="C238">
-        <v>18.810275129392789</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18.8102751293928</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
       <c r="A239" s="2">
         <v>43739</v>
       </c>
       <c r="B239">
-        <v>16.946681999999999</v>
+        <v>16.946682</v>
       </c>
       <c r="C239">
-        <v>16.91668967969294</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+        <v>16.9166896796929</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
       <c r="A240" s="2">
         <v>43770</v>
       </c>
@@ -3104,32 +3686,32 @@
         <v>13.225436</v>
       </c>
       <c r="C240">
-        <v>13.026374812941469</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13.0263748129415</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
       <c r="A241" s="2">
         <v>43800</v>
       </c>
       <c r="B241">
-        <v>13.432473999999999</v>
+        <v>13.432474</v>
       </c>
       <c r="C241">
-        <v>12.41988346899184</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+        <v>12.4198834689918</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
       <c r="A242" s="2">
         <v>43831</v>
       </c>
       <c r="B242">
-        <v>12.458759000000001</v>
+        <v>12.458759</v>
       </c>
       <c r="C242">
-        <v>11.510801300263511</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11.5108013002635</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
       <c r="A243" s="2">
         <v>43862</v>
       </c>
@@ -3137,54 +3719,54 @@
         <v>11.039762</v>
       </c>
       <c r="C243">
-        <v>9.9668535518889829</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.96685355188898</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
       <c r="A244" s="2">
         <v>43891</v>
       </c>
       <c r="B244">
-        <v>2.0826479999999998</v>
+        <v>2.082648</v>
       </c>
       <c r="C244">
-        <v>10.35371526189471</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10.3537152618947</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
       <c r="A245" s="2">
         <v>43922</v>
       </c>
       <c r="B245">
-        <v>0.11819399999999999</v>
+        <v>0.118194</v>
       </c>
       <c r="C245">
-        <v>-0.37248313532410798</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.372483135324108</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
       <c r="A246" s="2">
         <v>43952</v>
       </c>
       <c r="B246">
-        <v>0.21380199999999999</v>
+        <v>0.213802</v>
       </c>
       <c r="C246">
-        <v>0.54862543466213798</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.548625434662138</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
       <c r="A247" s="2">
         <v>43983</v>
       </c>
       <c r="B247">
-        <v>1.0988880000000001</v>
+        <v>1.098888</v>
       </c>
       <c r="C247">
-        <v>3.168083920389638</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.16808392038964</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
       <c r="A248" s="2">
         <v>44013</v>
       </c>
@@ -3192,43 +3774,43 @@
         <v>5.140415</v>
       </c>
       <c r="C248">
-        <v>6.7902281928401163</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6.79022819284012</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
       <c r="A249" s="2">
         <v>44044</v>
       </c>
       <c r="B249">
-        <v>7.5558439999999996</v>
+        <v>7.555844</v>
       </c>
       <c r="C249">
-        <v>7.732954658331276</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.73295465833128</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
       <c r="A250" s="2">
         <v>44075</v>
       </c>
       <c r="B250">
-        <v>5.7382679999999997</v>
+        <v>5.738268</v>
       </c>
       <c r="C250">
-        <v>7.1857825714247268</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.18578257142473</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
       <c r="A251" s="2">
         <v>44105</v>
       </c>
       <c r="B251">
-        <v>4.2772629999999996</v>
+        <v>4.277263</v>
       </c>
       <c r="C251">
-        <v>3.196774178513722</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.19677417851372</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
       <c r="A252" s="2">
         <v>44136</v>
       </c>
@@ -3236,10 +3818,10 @@
         <v>1.378128</v>
       </c>
       <c r="C252">
-        <v>0.92502897776006987</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.92502897776007</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
       <c r="A253" s="2">
         <v>44166</v>
       </c>
@@ -3247,87 +3829,87 @@
         <v>1.802311</v>
       </c>
       <c r="C253">
-        <v>1.970158130038733</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.97015813003873</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
       <c r="A254" s="2">
         <v>44197</v>
       </c>
       <c r="B254">
-        <v>1.5902909999999999</v>
+        <v>1.590291</v>
       </c>
       <c r="C254">
-        <v>1.8939721965852461</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.89397219658525</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
       <c r="A255" s="2">
         <v>44228</v>
       </c>
       <c r="B255">
-        <v>1.3931199999999999</v>
+        <v>1.39312</v>
       </c>
       <c r="C255">
-        <v>2.0181648618328549</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.01816486183285</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
       <c r="A256" s="2">
         <v>44256</v>
       </c>
       <c r="B256">
-        <v>1.6075060000000001</v>
+        <v>1.607506</v>
       </c>
       <c r="C256">
-        <v>1.767498774414539</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.76749877441454</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
       <c r="A257" s="2">
         <v>44287</v>
       </c>
       <c r="B257">
-        <v>2.0987010000000001</v>
+        <v>2.098701</v>
       </c>
       <c r="C257">
-        <v>4.230091730599387</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.23009173059939</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
       <c r="A258" s="2">
         <v>44317</v>
       </c>
       <c r="B258">
-        <v>3.1732040000000001</v>
+        <v>3.173204</v>
       </c>
       <c r="C258">
-        <v>3.938748295348617</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.93874829534862</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
       <c r="A259" s="2">
         <v>44348</v>
       </c>
       <c r="B259">
-        <v>6.6286379999999996</v>
+        <v>6.628638</v>
       </c>
       <c r="C259">
-        <v>4.8803882516993706</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.88038825169937</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
       <c r="A260" s="2">
         <v>44378</v>
       </c>
       <c r="B260">
-        <v>11.140560000000001</v>
+        <v>11.14056</v>
       </c>
       <c r="C260">
-        <v>9.211237366537901</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.2112373665379</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
       <c r="A261" s="2">
         <v>44409</v>
       </c>
@@ -3335,10 +3917,10 @@
         <v>13.077351</v>
       </c>
       <c r="C261">
-        <v>12.12071302536491</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+        <v>12.1207130253649</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
       <c r="A262" s="2">
         <v>44440</v>
       </c>
@@ -3346,32 +3928,32 @@
         <v>11.435976173</v>
       </c>
       <c r="C262">
-        <v>11.868212859426279</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11.8682128594263</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
       <c r="A263" s="2">
         <v>44470</v>
       </c>
       <c r="B263">
-        <v>10.679855999999999</v>
+        <v>10.679856</v>
       </c>
       <c r="C263">
-        <v>10.088343915802181</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10.0883439158022</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
       <c r="A264" s="2">
         <v>44501</v>
       </c>
       <c r="B264">
-        <v>9.0994519999999994</v>
+        <v>9.099452</v>
       </c>
       <c r="C264">
-        <v>7.8215902509394288</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.82159025093943</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
       <c r="A265" s="2">
         <v>44531</v>
       </c>
@@ -3379,98 +3961,98 @@
         <v>8.734807</v>
       </c>
       <c r="C265">
-        <v>9.674955222422895</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.67495522242289</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
       <c r="A266" s="2">
         <v>44562</v>
       </c>
       <c r="B266">
-        <v>6.0126059999999999</v>
+        <v>6.012606</v>
       </c>
       <c r="C266">
-        <v>8.1892294349500396</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.18922943495004</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
       <c r="A267" s="2">
         <v>44593</v>
       </c>
       <c r="B267">
-        <v>7.1324199999999998</v>
+        <v>7.13242</v>
       </c>
       <c r="C267">
-        <v>5.8110467845361704</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.81104678453617</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
       <c r="A268" s="2">
         <v>44621</v>
       </c>
       <c r="B268">
-        <v>9.8480500000000006</v>
+        <v>9.84805</v>
       </c>
       <c r="C268">
-        <v>8.930786139063958</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.93078613906396</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
       <c r="A269" s="2">
         <v>44652</v>
       </c>
       <c r="B269">
-        <v>13.547663999999999</v>
+        <v>13.547664</v>
       </c>
       <c r="C269">
-        <v>12.037642343619231</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+        <v>12.0376423436192</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
       <c r="A270" s="2">
         <v>44682</v>
       </c>
       <c r="B270">
-        <v>15.305777000000001</v>
+        <v>15.305777</v>
       </c>
       <c r="C270">
-        <v>15.020476296002199</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15.0204762960022</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
       <c r="A271" s="2">
         <v>44713</v>
       </c>
       <c r="B271">
-        <v>17.179822000000001</v>
+        <v>17.179822</v>
       </c>
       <c r="C271">
-        <v>17.057245050706541</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+        <v>17.0572450507065</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
       <c r="A272" s="2">
         <v>44743</v>
       </c>
       <c r="B272">
-        <v>18.815186000000001</v>
+        <v>18.815186</v>
       </c>
       <c r="C272">
-        <v>19.345505715805199</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+        <v>19.3455057158052</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
       <c r="A273" s="2">
         <v>44774</v>
       </c>
       <c r="B273">
-        <v>19.023054999999999</v>
+        <v>19.023055</v>
       </c>
       <c r="C273">
-        <v>19.110073873513141</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+        <v>19.1100738735131</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
       <c r="A274" s="2">
         <v>44805</v>
       </c>
@@ -3478,10 +4060,10 @@
         <v>17.987171</v>
       </c>
       <c r="C274">
-        <v>17.448053575458189</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+        <v>17.4480535754582</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
       <c r="A275" s="2">
         <v>44835</v>
       </c>
@@ -3489,10 +4071,10 @@
         <v>16.086371</v>
       </c>
       <c r="C275">
-        <v>16.581553959663761</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+        <v>16.5815539596638</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
       <c r="A276" s="2">
         <v>44866</v>
       </c>
@@ -3500,10 +4082,10 @@
         <v>11.574406</v>
       </c>
       <c r="C276">
-        <v>13.350421586814051</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13.3504215868141</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
       <c r="A277" s="2">
         <v>44896</v>
       </c>
@@ -3511,32 +4093,32 @@
         <v>12.077271</v>
       </c>
       <c r="C277">
-        <v>11.91682183719093</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11.9168218371909</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
       <c r="A278" s="2">
         <v>44927</v>
       </c>
       <c r="B278">
-        <v>11.571262000000001</v>
+        <v>11.571262</v>
       </c>
       <c r="C278">
-        <v>11.53484363117685</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11.5348436311768</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
       <c r="A279" s="2">
         <v>44958</v>
       </c>
       <c r="B279">
-        <v>10.996786999999999</v>
+        <v>10.996787</v>
       </c>
       <c r="C279">
-        <v>12.144455691656029</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+        <v>12.144455691656</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
       <c r="A280" s="2">
         <v>44986</v>
       </c>
@@ -3544,65 +4126,65 @@
         <v>13.27319</v>
       </c>
       <c r="C280">
-        <v>12.45876093409654</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+        <v>12.4587609340965</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
       <c r="A281" s="2">
         <v>45017</v>
       </c>
       <c r="B281">
-        <v>16.492159999999998</v>
+        <v>16.49216</v>
       </c>
       <c r="C281">
-        <v>15.87044679755406</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15.8704467975541</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
       <c r="A282" s="2">
         <v>45047</v>
       </c>
       <c r="B282">
-        <v>17.792383999999998</v>
+        <v>17.792384</v>
       </c>
       <c r="C282">
-        <v>17.943110766342809</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+        <v>17.9431107663428</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
       <c r="A283" s="2">
         <v>45078</v>
       </c>
       <c r="B283">
-        <v>19.398804999999999</v>
+        <v>19.398805</v>
       </c>
       <c r="C283">
-        <v>19.306508670415031</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+        <v>19.306508670415</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
       <c r="A284" s="2">
         <v>45108</v>
       </c>
       <c r="B284">
-        <v>21.214110000000002</v>
+        <v>21.21411</v>
       </c>
       <c r="C284">
-        <v>21.283006968521349</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+        <v>21.2830069685213</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
       <c r="A285" s="2">
         <v>45139</v>
       </c>
       <c r="B285">
-        <v>21.250537000000001</v>
+        <v>21.250537</v>
       </c>
       <c r="C285">
-        <v>21.434581561125359</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+        <v>21.4345815611254</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
       <c r="A286" s="2">
         <v>45170</v>
       </c>
@@ -3610,21 +4192,21 @@
         <v>19.861424</v>
       </c>
       <c r="C286">
-        <v>19.84499356550279</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+        <v>19.8449935655028</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
       <c r="A287" s="2">
         <v>45200</v>
       </c>
       <c r="B287">
-        <v>18.447019000000001</v>
+        <v>18.447019</v>
       </c>
       <c r="C287">
-        <v>18.100627133848999</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18.100627133849</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
       <c r="A288" s="2">
         <v>45231</v>
       </c>
@@ -3632,10 +4214,10 @@
         <v>13.188642</v>
       </c>
       <c r="C288">
-        <v>14.869377510034109</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+        <v>14.8693775100341</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
       <c r="A289" s="2">
         <v>45261</v>
       </c>
@@ -3643,10 +4225,10 @@
         <v>13.694099</v>
       </c>
       <c r="C289">
-        <v>13.422869911838029</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+        <v>13.422869911838</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
       <c r="A290" s="2">
         <v>45292</v>
       </c>
@@ -3654,10 +4236,10 @@
         <v>12.60974</v>
       </c>
       <c r="C290">
-        <v>13.20340815114016</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+        <v>13.2034081511402</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
       <c r="A291" s="2">
         <v>45323</v>
       </c>
@@ -3665,32 +4247,32 @@
         <v>12.581548</v>
       </c>
       <c r="C291">
-        <v>12.38445112741752</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12.3844511274175</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
       <c r="A292" s="2">
         <v>45352</v>
       </c>
       <c r="B292">
-        <v>15.089302999999999</v>
+        <v>15.089303</v>
       </c>
       <c r="C292">
-        <v>13.539628332249549</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+        <v>13.5396283322495</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
       <c r="A293" s="2">
         <v>45383</v>
       </c>
       <c r="B293">
-        <v>18.475598000000002</v>
+        <v>18.475598</v>
       </c>
       <c r="C293">
-        <v>17.455782620935619</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+        <v>17.4557826209356</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
       <c r="A294" s="2">
         <v>45413</v>
       </c>
@@ -3698,43 +4280,43 @@
         <v>20.13766</v>
       </c>
       <c r="C294">
-        <v>19.66534181804774</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+        <v>19.6653418180477</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
       <c r="A295" s="2">
         <v>45444</v>
       </c>
       <c r="B295">
-        <v>21.501384000000002</v>
+        <v>21.501384</v>
       </c>
       <c r="C295">
-        <v>21.562038816427069</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+        <v>21.5620388164271</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
       <c r="A296" s="2">
         <v>45474</v>
       </c>
       <c r="B296">
-        <v>23.413451999999999</v>
+        <v>23.413452</v>
       </c>
       <c r="C296">
-        <v>23.328763776733719</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+        <v>23.3287637767337</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
       <c r="A297" s="2">
         <v>45505</v>
       </c>
       <c r="B297">
-        <v>23.577014999999999</v>
+        <v>23.577015</v>
       </c>
       <c r="C297">
-        <v>23.595906087644209</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+        <v>23.5959060876442</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
       <c r="A298" s="2">
         <v>45536</v>
       </c>
@@ -3745,880 +4327,880 @@
         <v>22.0130706783779</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3">
       <c r="A299" s="2">
         <v>45566</v>
       </c>
       <c r="B299">
-        <v>20.186022999999999</v>
+        <v>20.186023</v>
       </c>
       <c r="C299">
-        <v>20.443428929233711</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20.4434289292337</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
       <c r="A300" s="2">
         <v>45597</v>
       </c>
       <c r="B300">
-        <v>14.587260000000001</v>
+        <v>14.58726</v>
       </c>
       <c r="C300">
-        <v>16.331167460753608</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+        <v>16.3311674607536</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
       <c r="A301" s="2">
         <v>45627</v>
       </c>
       <c r="B301">
-        <v>14.957872999999999</v>
+        <v>14.957873</v>
       </c>
       <c r="C301">
-        <v>14.676551245658089</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+        <v>14.6765512456581</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8">
       <c r="A302" s="2">
         <v>45658</v>
       </c>
       <c r="D302">
-        <v>13.962518438366629</v>
+        <v>13.9625184383666</v>
       </c>
       <c r="E302">
-        <v>12.990307585581871</v>
+        <v>12.9903075855819</v>
       </c>
       <c r="F302">
-        <v>14.934729291151379</v>
+        <v>14.9347292911514</v>
       </c>
       <c r="G302">
-        <v>12.47565024822295</v>
+        <v>12.4756502482229</v>
       </c>
       <c r="H302">
         <v>15.4493866285103</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8">
       <c r="A303" s="2">
         <v>45689</v>
       </c>
       <c r="D303">
-        <v>13.87557998872111</v>
+        <v>13.8755799887211</v>
       </c>
       <c r="E303">
-        <v>12.453793960479841</v>
+        <v>12.4537939604798</v>
       </c>
       <c r="F303">
-        <v>15.297366016962391</v>
+        <v>15.2973660169624</v>
       </c>
       <c r="G303">
-        <v>11.70114590116963</v>
+        <v>11.7011459011696</v>
       </c>
       <c r="H303">
         <v>16.0500140762726</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8">
       <c r="A304" s="2">
         <v>45717</v>
       </c>
       <c r="D304">
-        <v>14.79481545689754</v>
+        <v>14.7948154568975</v>
       </c>
       <c r="E304">
-        <v>13.07938557721133</v>
+        <v>13.0793855772113</v>
       </c>
       <c r="F304">
-        <v>16.51024533658375</v>
+        <v>16.5102453365838</v>
       </c>
       <c r="G304">
-        <v>12.171291852710709</v>
+        <v>12.1712918527107</v>
       </c>
       <c r="H304">
-        <v>17.418339061084371</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+        <v>17.4183390610844</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
       <c r="A305" s="2">
         <v>45748</v>
       </c>
       <c r="D305">
-        <v>17.28261474258872</v>
+        <v>17.2826147425887</v>
       </c>
       <c r="E305">
-        <v>15.35098200827847</v>
+        <v>15.3509820082785</v>
       </c>
       <c r="F305">
-        <v>19.214247476898969</v>
+        <v>19.214247476899</v>
       </c>
       <c r="G305">
-        <v>14.32843740599605</v>
+        <v>14.3284374059961</v>
       </c>
       <c r="H305">
-        <v>20.236792079181381</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20.2367920791814</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
       <c r="A306" s="2">
         <v>45778</v>
       </c>
       <c r="D306">
-        <v>18.689740417983099</v>
+        <v>18.6897404179831</v>
       </c>
       <c r="E306">
-        <v>16.590666366687842</v>
+        <v>16.5906663666878</v>
       </c>
       <c r="F306">
-        <v>20.788814469278371</v>
+        <v>20.7888144692784</v>
       </c>
       <c r="G306">
-        <v>15.479483685416129</v>
+        <v>15.4794836854161</v>
       </c>
       <c r="H306">
-        <v>21.899997150550071</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+        <v>21.8999971505501</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8">
       <c r="A307" s="2">
         <v>45809</v>
       </c>
       <c r="D307">
-        <v>20.295706887959479</v>
+        <v>20.2957068879595</v>
       </c>
       <c r="E307">
-        <v>18.063267433126828</v>
+        <v>18.0632674331268</v>
       </c>
       <c r="F307">
-        <v>22.528146342792141</v>
+        <v>22.5281463427921</v>
       </c>
       <c r="G307">
-        <v>16.881485371809369</v>
+        <v>16.8814853718094</v>
       </c>
       <c r="H307">
-        <v>23.709928404109601</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+        <v>23.7099284041096</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8">
       <c r="A308" s="2">
         <v>45839</v>
       </c>
       <c r="D308">
-        <v>22.365597416360568</v>
+        <v>22.3655974163606</v>
       </c>
       <c r="E308">
-        <v>20.025034434963601</v>
+        <v>20.0250344349636</v>
       </c>
       <c r="F308">
-        <v>24.70616039775755</v>
+        <v>24.7061603977576</v>
       </c>
       <c r="G308">
-        <v>18.786015236117741</v>
+        <v>18.7860152361177</v>
       </c>
       <c r="H308">
-        <v>25.94517959660341</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25.9451795966034</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
       <c r="A309" s="2">
         <v>45870</v>
       </c>
       <c r="D309">
-        <v>22.74290611616615</v>
+        <v>22.7429061161662</v>
       </c>
       <c r="E309">
-        <v>20.313616275759301</v>
+        <v>20.3136162757593</v>
       </c>
       <c r="F309">
-        <v>25.172195956572999</v>
+        <v>25.172195956573</v>
       </c>
       <c r="G309">
-        <v>19.027627914946731</v>
+        <v>19.0276279149467</v>
       </c>
       <c r="H309">
-        <v>26.45818431738557</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+        <v>26.4581843173856</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8">
       <c r="A310" s="2">
         <v>45901</v>
       </c>
       <c r="D310">
-        <v>21.182242322076629</v>
+        <v>21.1822423220766</v>
       </c>
       <c r="E310">
-        <v>18.67950571302752</v>
+        <v>18.6795057130275</v>
       </c>
       <c r="F310">
-        <v>23.684978931125741</v>
+        <v>23.6849789311257</v>
       </c>
       <c r="G310">
-        <v>17.354636981481821</v>
+        <v>17.3546369814818</v>
       </c>
       <c r="H310">
-        <v>25.00984766267144</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25.0098476626714</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
       <c r="A311" s="2">
         <v>45931</v>
       </c>
       <c r="D311">
-        <v>19.615645203181909</v>
+        <v>19.6156452031819</v>
       </c>
       <c r="E311">
-        <v>17.05171400081159</v>
+        <v>17.0517140008116</v>
       </c>
       <c r="F311">
-        <v>22.179576405552229</v>
+        <v>22.1795764055522</v>
       </c>
       <c r="G311">
-        <v>15.69445080836346</v>
+        <v>15.6944508083635</v>
       </c>
       <c r="H311">
-        <v>23.53683959800037</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+        <v>23.5368395980004</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
       <c r="A312" s="2">
         <v>45962</v>
       </c>
       <c r="D312">
-        <v>15.63397348024634</v>
+        <v>15.6339734802463</v>
       </c>
       <c r="E312">
-        <v>13.018801293463939</v>
+        <v>13.0188012934639</v>
       </c>
       <c r="F312">
-        <v>18.249145667028738</v>
+        <v>18.2491456670287</v>
       </c>
       <c r="G312">
-        <v>11.634412762386191</v>
+        <v>11.6344127623862</v>
       </c>
       <c r="H312">
-        <v>19.633534198106489</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+        <v>19.6335341981065</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8">
       <c r="A313" s="2">
         <v>45992</v>
       </c>
       <c r="D313">
-        <v>15.95990011314197</v>
+        <v>15.959900113142</v>
       </c>
       <c r="E313">
-        <v>13.301653922638531</v>
+        <v>13.3016539226385</v>
       </c>
       <c r="F313">
-        <v>18.61814630364541</v>
+        <v>18.6181463036454</v>
       </c>
       <c r="G313">
-        <v>11.894463391355821</v>
+        <v>11.8944633913558</v>
       </c>
       <c r="H313">
-        <v>20.025336834928119</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20.0253368349281</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8">
       <c r="A314" s="2">
         <v>46023</v>
       </c>
       <c r="D314">
-        <v>14.98326172369411</v>
+        <v>14.9832617236941</v>
       </c>
       <c r="E314">
-        <v>12.22867647070796</v>
+        <v>12.228676470708</v>
       </c>
       <c r="F314">
-        <v>17.73784697668027</v>
+        <v>17.7378469766803</v>
       </c>
       <c r="G314">
-        <v>10.77048712035325</v>
+        <v>10.7704871203533</v>
       </c>
       <c r="H314">
-        <v>19.196036327034971</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+        <v>19.196036327035</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8">
       <c r="A315" s="2">
         <v>46054</v>
       </c>
       <c r="D315">
-        <v>14.96670433434215</v>
+        <v>14.9667043343422</v>
       </c>
       <c r="E315">
-        <v>12.122587860432841</v>
+        <v>12.1225878604328</v>
       </c>
       <c r="F315">
-        <v>17.810820808251471</v>
+        <v>17.8108208082515</v>
       </c>
       <c r="G315">
-        <v>10.61700354463537</v>
+        <v>10.6170035446354</v>
       </c>
       <c r="H315">
-        <v>19.316405124048931</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+        <v>19.3164051240489</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8">
       <c r="A316" s="2">
         <v>46082</v>
       </c>
       <c r="D316">
-        <v>15.567999431560651</v>
+        <v>15.5679994315607</v>
       </c>
       <c r="E316">
-        <v>12.64943099790246</v>
+        <v>12.6494309979025</v>
       </c>
       <c r="F316">
-        <v>18.486567865218841</v>
+        <v>18.4865678652188</v>
       </c>
       <c r="G316">
-        <v>11.10443419534273</v>
+        <v>11.1044341953427</v>
       </c>
       <c r="H316">
-        <v>20.031564667778579</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20.0315646677786</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
       <c r="A317" s="2">
         <v>46113</v>
       </c>
       <c r="D317">
-        <v>17.87747477432038</v>
+        <v>17.8774747743204</v>
       </c>
       <c r="E317">
         <v>14.8966572257197</v>
       </c>
       <c r="F317">
-        <v>20.858292322921049</v>
+        <v>20.858292322921</v>
       </c>
       <c r="G317">
-        <v>13.31870773223137</v>
+        <v>13.3187077322314</v>
       </c>
       <c r="H317">
-        <v>22.436241816409382</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+        <v>22.4362418164094</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8">
       <c r="A318" s="2">
         <v>46143</v>
       </c>
       <c r="D318">
-        <v>19.174305787874289</v>
+        <v>19.1743057878743</v>
       </c>
       <c r="E318">
-        <v>16.14122185982459</v>
+        <v>16.1412218598246</v>
       </c>
       <c r="F318">
-        <v>22.207389715923991</v>
+        <v>22.207389715924</v>
       </c>
       <c r="G318">
-        <v>14.53560421636285</v>
+        <v>14.5356042163629</v>
       </c>
       <c r="H318">
-        <v>23.813007359385729</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+        <v>23.8130073593857</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8">
       <c r="A319" s="2">
         <v>46174</v>
       </c>
       <c r="D319">
-        <v>20.840698265425491</v>
+        <v>20.8406982654255</v>
       </c>
       <c r="E319">
-        <v>17.763583013101769</v>
+        <v>17.7635830131018</v>
       </c>
       <c r="F319">
-        <v>23.917813517749209</v>
+        <v>23.9178135177492</v>
       </c>
       <c r="G319">
-        <v>16.134656594546279</v>
+        <v>16.1346565945463</v>
       </c>
       <c r="H319">
         <v>25.5467399363047</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8">
       <c r="A320" s="2">
         <v>46204</v>
       </c>
       <c r="D320">
-        <v>22.947261631262421</v>
+        <v>22.9472616312624</v>
       </c>
       <c r="E320">
-        <v>19.832953096943839</v>
+        <v>19.8329530969438</v>
       </c>
       <c r="F320">
-        <v>26.061570165580999</v>
+        <v>26.061570165581</v>
       </c>
       <c r="G320">
         <v>18.1843377442191</v>
       </c>
       <c r="H320">
-        <v>27.710185518305739</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+        <v>27.7101855183057</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8">
       <c r="A321" s="2">
         <v>46235</v>
       </c>
       <c r="D321">
-        <v>23.370154436751111</v>
+        <v>23.3701544367511</v>
       </c>
       <c r="E321">
-        <v>20.224360383034242</v>
+        <v>20.2243603830342</v>
       </c>
       <c r="F321">
-        <v>26.515948490467981</v>
+        <v>26.515948490468</v>
       </c>
       <c r="G321">
-        <v>18.55907760314339</v>
+        <v>18.5590776031434</v>
       </c>
       <c r="H321">
-        <v>28.181231270358818</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+        <v>28.1812312703588</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8">
       <c r="A322" s="2">
         <v>46266</v>
       </c>
       <c r="D322">
-        <v>21.815262885274588</v>
+        <v>21.8152628852746</v>
       </c>
       <c r="E322">
-        <v>18.642767727828701</v>
+        <v>18.6427677278287</v>
       </c>
       <c r="F322">
-        <v>24.98775804272049</v>
+        <v>24.9877580427205</v>
       </c>
       <c r="G322">
-        <v>16.96335023743719</v>
+        <v>16.9633502374372</v>
       </c>
       <c r="H322">
-        <v>26.667175533112001</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+        <v>26.667175533112</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8">
       <c r="A323" s="2">
         <v>46296</v>
       </c>
       <c r="D323">
-        <v>20.32064589255884</v>
+        <v>20.3206458925588</v>
       </c>
       <c r="E323">
-        <v>17.125473841347759</v>
+        <v>17.1254738413478</v>
       </c>
       <c r="F323">
-        <v>23.515817943769932</v>
+        <v>23.5158179437699</v>
       </c>
       <c r="G323">
-        <v>15.434051928529421</v>
+        <v>15.4340519285294</v>
       </c>
       <c r="H323">
-        <v>25.207239856588259</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25.2072398565883</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8">
       <c r="A324" s="2">
         <v>46327</v>
       </c>
       <c r="D324">
-        <v>16.540399524434211</v>
+        <v>16.5403995244342</v>
       </c>
       <c r="E324">
-        <v>13.32594490988348</v>
+        <v>13.3259449098835</v>
       </c>
       <c r="F324">
-        <v>19.754854138984928</v>
+        <v>19.7548541389849</v>
       </c>
       <c r="G324">
-        <v>11.624315424626101</v>
+        <v>11.6243154246261</v>
       </c>
       <c r="H324">
-        <v>21.45648362424232</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+        <v>21.4564836242423</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8">
       <c r="A325" s="2">
         <v>46357</v>
       </c>
       <c r="D325">
-        <v>16.841297048060369</v>
+        <v>16.8412970480604</v>
       </c>
       <c r="E325">
-        <v>13.61042957491952</v>
+        <v>13.6104295749195</v>
       </c>
       <c r="F325">
-        <v>20.07216452120122</v>
+        <v>20.0721645212012</v>
       </c>
       <c r="G325">
-        <v>11.900111647153761</v>
+        <v>11.9001116471538</v>
       </c>
       <c r="H325">
-        <v>21.782482448966981</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+        <v>21.782482448967</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8">
       <c r="A326" s="2">
         <v>46388</v>
       </c>
       <c r="D326">
-        <v>15.766630496647879</v>
+        <v>15.7666304966479</v>
       </c>
       <c r="E326">
-        <v>12.506507694145871</v>
+        <v>12.5065076941459</v>
       </c>
       <c r="F326">
-        <v>19.026753299149881</v>
+        <v>19.0267532991499</v>
       </c>
       <c r="G326">
-        <v>10.78070293050552</v>
+        <v>10.7807029305055</v>
       </c>
       <c r="H326">
-        <v>20.752558062790239</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20.7525580627902</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8">
       <c r="A327" s="2">
         <v>46419</v>
       </c>
       <c r="D327">
-        <v>15.73213946671183</v>
+        <v>15.7321394667118</v>
       </c>
       <c r="E327">
-        <v>12.444778759154319</v>
+        <v>12.4447787591543</v>
       </c>
       <c r="F327">
-        <v>19.019500174269339</v>
+        <v>19.0195001742693</v>
       </c>
       <c r="G327">
-        <v>10.704555119556201</v>
+        <v>10.7045551195562</v>
       </c>
       <c r="H327">
-        <v>20.75972381386746</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20.7597238138675</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8">
       <c r="A328" s="2">
         <v>46447</v>
       </c>
       <c r="D328">
-        <v>16.384078624120431</v>
+        <v>16.3840786241204</v>
       </c>
       <c r="E328">
-        <v>13.073582138401839</v>
+        <v>13.0735821384018</v>
       </c>
       <c r="F328">
-        <v>19.694575109839029</v>
+        <v>19.694575109839</v>
       </c>
       <c r="G328">
-        <v>11.32111115765133</v>
+        <v>11.3211111576513</v>
       </c>
       <c r="H328">
-        <v>21.447046090589541</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+        <v>21.4470460905895</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8">
       <c r="A329" s="2">
         <v>46478</v>
       </c>
       <c r="D329">
-        <v>18.77481891670007</v>
+        <v>18.7748189167001</v>
       </c>
       <c r="E329">
         <v>15.4446474697178</v>
       </c>
       <c r="F329">
-        <v>22.10499036368234</v>
+        <v>22.1049903636823</v>
       </c>
       <c r="G329">
-        <v>13.68176119361484</v>
+        <v>13.6817611936148</v>
       </c>
       <c r="H329">
-        <v>23.86787663978529</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+        <v>23.8678766397853</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8">
       <c r="A330" s="2">
         <v>46508</v>
       </c>
       <c r="D330">
-        <v>20.069030715315652</v>
+        <v>20.0690307153157</v>
       </c>
       <c r="E330">
-        <v>16.722110743102011</v>
+        <v>16.722110743102</v>
       </c>
       <c r="F330">
-        <v>23.415950687529289</v>
+        <v>23.4159506875293</v>
       </c>
       <c r="G330">
-        <v>14.950358333304321</v>
+        <v>14.9503583333043</v>
       </c>
       <c r="H330">
-        <v>25.187703097326981</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25.187703097327</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8">
       <c r="A331" s="2">
         <v>46539</v>
       </c>
       <c r="D331">
-        <v>21.754630888950459</v>
+        <v>21.7546308889505</v>
       </c>
       <c r="E331">
-        <v>18.393441655398458</v>
+        <v>18.3934416553985</v>
       </c>
       <c r="F331">
-        <v>25.115820122502459</v>
+        <v>25.1158201225025</v>
       </c>
       <c r="G331">
-        <v>16.61413555493229</v>
+        <v>16.6141355549323</v>
       </c>
       <c r="H331">
-        <v>26.895126222968631</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+        <v>26.8951262229686</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8">
       <c r="A332" s="2">
         <v>46569</v>
       </c>
       <c r="D332">
-        <v>23.860911864777709</v>
+        <v>23.8609118647777</v>
       </c>
       <c r="E332">
-        <v>20.487557118103009</v>
+        <v>20.487557118103</v>
       </c>
       <c r="F332">
-        <v>27.234266611452401</v>
+        <v>27.2342666114524</v>
       </c>
       <c r="G332">
-        <v>18.70181098400278</v>
+        <v>18.7018109840028</v>
       </c>
       <c r="H332">
-        <v>29.020012745552631</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+        <v>29.0200127455526</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8">
       <c r="A333" s="2">
         <v>46600</v>
       </c>
       <c r="D333">
-        <v>24.278429245327288</v>
+        <v>24.2784292453273</v>
       </c>
       <c r="E333">
-        <v>20.89469646401967</v>
+        <v>20.8946964640197</v>
       </c>
       <c r="F333">
-        <v>27.662162026634899</v>
+        <v>27.6621620266349</v>
       </c>
       <c r="G333">
-        <v>19.10345653024018</v>
+        <v>19.1034565302402</v>
       </c>
       <c r="H333">
-        <v>29.453401960414389</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+        <v>29.4534019604144</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8">
       <c r="A334" s="2">
         <v>46631</v>
       </c>
       <c r="D334">
-        <v>22.714592126575919</v>
+        <v>22.7145921265759</v>
       </c>
       <c r="E334">
-        <v>19.32200176169907</v>
+        <v>19.3220017616991</v>
       </c>
       <c r="F334">
-        <v>26.107182491452772</v>
+        <v>26.1071824914528</v>
       </c>
       <c r="G334">
-        <v>17.52607290641442</v>
+        <v>17.5260729064144</v>
       </c>
       <c r="H334">
-        <v>27.903111346737418</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+        <v>27.9031113467374</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8">
       <c r="A335" s="2">
         <v>46661</v>
       </c>
       <c r="D335">
-        <v>21.225385658880811</v>
+        <v>21.2253856588808</v>
       </c>
       <c r="E335">
-        <v>17.825232243057989</v>
+        <v>17.825232243058</v>
       </c>
       <c r="F335">
-        <v>24.625539074703632</v>
+        <v>24.6255390747036</v>
       </c>
       <c r="G335">
-        <v>16.025299750444042</v>
+        <v>16.025299750444</v>
       </c>
       <c r="H335">
-        <v>26.42547156731758</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+        <v>26.4254715673176</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8">
       <c r="A336" s="2">
         <v>46692</v>
       </c>
       <c r="D336">
-        <v>17.255775955549211</v>
+        <v>17.2557759555492</v>
       </c>
       <c r="E336">
-        <v>13.849162550364101</v>
+        <v>13.8491625503641</v>
       </c>
       <c r="F336">
-        <v>20.66238936073432</v>
+        <v>20.6623893607343</v>
       </c>
       <c r="G336">
-        <v>12.04581034595096</v>
+        <v>12.045810345951</v>
       </c>
       <c r="H336">
-        <v>22.465741565147461</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+        <v>22.4657415651475</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8">
       <c r="A337" s="2">
         <v>46722</v>
       </c>
       <c r="D337">
-        <v>17.548627893762301</v>
+        <v>17.5486278937623</v>
       </c>
       <c r="E337">
-        <v>14.13649504645254</v>
+        <v>14.1364950464525</v>
       </c>
       <c r="F337">
-        <v>20.960760741072061</v>
+        <v>20.9607607410721</v>
       </c>
       <c r="G337">
-        <v>12.330221025872209</v>
+        <v>12.3302210258722</v>
       </c>
       <c r="H337">
-        <v>22.76703476165239</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+        <v>22.7670347616524</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8">
       <c r="A338" s="2">
         <v>46753</v>
       </c>
       <c r="D338">
-        <v>16.403969360450048</v>
+        <v>16.40396936045</v>
       </c>
       <c r="E338">
-        <v>12.974679329489019</v>
+        <v>12.974679329489</v>
       </c>
       <c r="F338">
-        <v>19.83325939141108</v>
+        <v>19.8332593914111</v>
       </c>
       <c r="G338">
-        <v>11.159322844514019</v>
+        <v>11.159322844514</v>
       </c>
       <c r="H338">
-        <v>21.648615876386081</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+        <v>21.6486158763861</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8">
       <c r="A339" s="2">
         <v>46784</v>
       </c>
       <c r="D339">
-        <v>16.356848866554461</v>
+        <v>16.3568488665545</v>
       </c>
       <c r="E339">
-        <v>12.91073321590725</v>
+        <v>12.9107332159072</v>
       </c>
       <c r="F339">
-        <v>19.802964517201669</v>
+        <v>19.8029645172017</v>
       </c>
       <c r="G339">
-        <v>11.086469785898361</v>
+        <v>11.0864697858984</v>
       </c>
       <c r="H339">
-        <v>21.62722794721056</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+        <v>21.6272279472106</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8">
       <c r="A340" s="2">
         <v>46813</v>
       </c>
       <c r="D340">
-        <v>17.13317405945509</v>
+        <v>17.1331740594551</v>
       </c>
       <c r="E340">
-        <v>13.67272180843301</v>
+        <v>13.672721808433</v>
       </c>
       <c r="F340">
-        <v>20.59362631047717</v>
+        <v>20.5936263104772</v>
       </c>
       <c r="G340">
-        <v>11.84086904062298</v>
+        <v>11.840869040623</v>
       </c>
       <c r="H340">
-        <v>22.425479078287189</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+        <v>22.4254790782872</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8">
       <c r="A341" s="2">
         <v>46844</v>
       </c>
       <c r="D341">
-        <v>19.63746436338155</v>
+        <v>19.6374643633816</v>
       </c>
       <c r="E341">
-        <v>16.164787979691539</v>
+        <v>16.1647879796915</v>
       </c>
       <c r="F341">
-        <v>23.110140747071561</v>
+        <v>23.1101407470716</v>
       </c>
       <c r="G341">
-        <v>14.32646414693467</v>
+        <v>14.3264641469347</v>
       </c>
       <c r="H341">
-        <v>24.948464579828439</v>
-      </c>
-    </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+        <v>24.9484645798284</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8">
       <c r="A342" s="2">
         <v>46874</v>
       </c>
       <c r="D342">
-        <v>20.958723231005589</v>
+        <v>20.9587232310056</v>
       </c>
       <c r="E342">
-        <v>17.475617913449749</v>
+        <v>17.4756179134497</v>
       </c>
       <c r="F342">
-        <v>24.441828548561439</v>
+        <v>24.4418285485614</v>
       </c>
       <c r="G342">
-        <v>15.631773336587299</v>
+        <v>15.6317733365873</v>
       </c>
       <c r="H342">
-        <v>26.28567312542388</v>
-      </c>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+        <v>26.2856731254239</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8">
       <c r="A343" s="2">
         <v>46905</v>
       </c>
       <c r="D343">
-        <v>22.652583273835461</v>
+        <v>22.6525832738355</v>
       </c>
       <c r="E343">
-        <v>19.160576259790069</v>
+        <v>19.1605762597901</v>
       </c>
       <c r="F343">
-        <v>26.144590287880849</v>
+        <v>26.1445902878808</v>
       </c>
       <c r="G343">
-        <v>17.31201940945304</v>
+        <v>17.312019409453</v>
       </c>
       <c r="H343">
-        <v>27.993147138217878</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+        <v>27.9931471382179</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8">
       <c r="A344" s="2">
         <v>46935</v>
       </c>
@@ -4626,319 +5208,319 @@
         <v>24.7574033671346</v>
       </c>
       <c r="E344">
-        <v>21.257795120266831</v>
+        <v>21.2577951202668</v>
       </c>
       <c r="F344">
-        <v>28.257011614002369</v>
+        <v>28.2570116140024</v>
       </c>
       <c r="G344">
-        <v>19.405214420336058</v>
+        <v>19.4052144203361</v>
       </c>
       <c r="H344">
-        <v>30.109592313933138</v>
-      </c>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30.1095923139331</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8">
       <c r="A345" s="2">
         <v>46966</v>
       </c>
       <c r="D345">
-        <v>25.166698884882379</v>
+        <v>25.1666988848824</v>
       </c>
       <c r="E345">
-        <v>21.660597625649739</v>
+        <v>21.6605976256497</v>
       </c>
       <c r="F345">
-        <v>28.672800144115019</v>
+        <v>28.672800144115</v>
       </c>
       <c r="G345">
-        <v>19.804579732598189</v>
+        <v>19.8045797325982</v>
       </c>
       <c r="H345">
-        <v>30.52881803716657</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30.5288180371666</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8">
       <c r="A346" s="2">
         <v>46997</v>
       </c>
       <c r="D346">
-        <v>23.599314748673521</v>
+        <v>23.5993147486735</v>
       </c>
       <c r="E346">
-        <v>20.08766549293841</v>
+        <v>20.0876654929384</v>
       </c>
       <c r="F346">
-        <v>27.11096400440864</v>
+        <v>27.1109640044086</v>
       </c>
       <c r="G346">
-        <v>18.228710667945119</v>
+        <v>18.2287106679451</v>
       </c>
       <c r="H346">
-        <v>28.96991882940193</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+        <v>28.9699188294019</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8">
       <c r="A347" s="2">
         <v>47027</v>
       </c>
       <c r="D347">
-        <v>22.10368999649026</v>
+        <v>22.1036899964903</v>
       </c>
       <c r="E347">
-        <v>18.587299039588309</v>
+        <v>18.5872990395883</v>
       </c>
       <c r="F347">
-        <v>25.620080953392211</v>
+        <v>25.6200809533922</v>
       </c>
       <c r="G347">
-        <v>16.72583410962131</v>
+        <v>16.7258341096213</v>
       </c>
       <c r="H347">
-        <v>27.48154588335921</v>
-      </c>
-    </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+        <v>27.4815458833592</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8">
       <c r="A348" s="2">
         <v>47058</v>
       </c>
       <c r="D348">
-        <v>17.94059728410636</v>
+        <v>17.9405972841064</v>
       </c>
       <c r="E348">
-        <v>14.42015289058809</v>
+        <v>14.4201528905881</v>
       </c>
       <c r="F348">
-        <v>21.461041677624632</v>
+        <v>21.4610416776246</v>
       </c>
       <c r="G348">
-        <v>12.556542200891981</v>
+        <v>12.556542200892</v>
       </c>
       <c r="H348">
-        <v>23.324652367320741</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+        <v>23.3246523673207</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8">
       <c r="A349" s="2">
         <v>47088</v>
       </c>
       <c r="D349">
-        <v>18.24069275964484</v>
+        <v>18.2406927596448</v>
       </c>
       <c r="E349">
-        <v>14.716782679737969</v>
+        <v>14.716782679738</v>
       </c>
       <c r="F349">
-        <v>21.76460283955171</v>
+        <v>21.7646028395517</v>
       </c>
       <c r="G349">
-        <v>12.851337366488989</v>
+        <v>12.851337366489</v>
       </c>
       <c r="H349">
         <v>23.6300481528007</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8">
       <c r="A350" s="2">
         <v>47119</v>
       </c>
       <c r="D350">
-        <v>17.069319601210619</v>
+        <v>17.0693196012106</v>
       </c>
       <c r="E350">
-        <v>13.526803004658611</v>
+        <v>13.5268030046586</v>
       </c>
       <c r="F350">
-        <v>20.611836197762631</v>
+        <v>20.6118361977626</v>
       </c>
       <c r="G350">
-        <v>11.65150799647288</v>
+        <v>11.6515079964729</v>
       </c>
       <c r="H350">
-        <v>22.487131205948359</v>
-      </c>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+        <v>22.4871312059484</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8">
       <c r="A351" s="2">
         <v>47150</v>
       </c>
       <c r="D351">
-        <v>17.023715792838711</v>
+        <v>17.0237157928387</v>
       </c>
       <c r="E351">
-        <v>13.46229969951465</v>
+        <v>13.4622996995147</v>
       </c>
       <c r="F351">
-        <v>20.585131886162781</v>
+        <v>20.5851318861628</v>
       </c>
       <c r="G351">
-        <v>11.576999902081541</v>
+        <v>11.5769999020815</v>
       </c>
       <c r="H351">
-        <v>22.470431683595891</v>
-      </c>
-    </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+        <v>22.4704316835959</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8">
       <c r="A352" s="2">
         <v>47178</v>
       </c>
       <c r="D352">
-        <v>17.897541760816409</v>
+        <v>17.8975417608164</v>
       </c>
       <c r="E352">
-        <v>14.320028282253171</v>
+        <v>14.3200282822532</v>
       </c>
       <c r="F352">
-        <v>21.475055239379639</v>
+        <v>21.4750552393796</v>
       </c>
       <c r="G352">
-        <v>12.426207043815889</v>
+        <v>12.4262070438159</v>
       </c>
       <c r="H352">
-        <v>23.368876477816929</v>
-      </c>
-    </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+        <v>23.3688764778169</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8">
       <c r="A353" s="2">
         <v>47209</v>
       </c>
       <c r="D353">
-        <v>20.481479595561471</v>
+        <v>20.4814795955615</v>
       </c>
       <c r="E353">
-        <v>16.890245161159939</v>
+        <v>16.8902451611599</v>
       </c>
       <c r="F353">
-        <v>24.072714029962999</v>
+        <v>24.072714029963</v>
       </c>
       <c r="G353">
-        <v>14.989160487452899</v>
+        <v>14.9891604874529</v>
       </c>
       <c r="H353">
-        <v>25.973798703670042</v>
-      </c>
-    </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25.97379870367</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8">
       <c r="A354" s="2">
         <v>47239</v>
       </c>
       <c r="D354">
-        <v>21.827864922074891</v>
+        <v>21.8278649220749</v>
       </c>
       <c r="E354">
-        <v>18.224927790532089</v>
+        <v>18.2249277905321</v>
       </c>
       <c r="F354">
         <v>25.4308020536177</v>
       </c>
       <c r="G354">
-        <v>16.317648083172209</v>
+        <v>16.3176480831722</v>
       </c>
       <c r="H354">
-        <v>27.33808176097758</v>
-      </c>
-    </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+        <v>27.3380817609776</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8">
       <c r="A355" s="2">
         <v>47270</v>
       </c>
       <c r="D355">
-        <v>23.525687744070439</v>
+        <v>23.5256877440704</v>
       </c>
       <c r="E355">
-        <v>19.912764016776581</v>
+        <v>19.9127640167766</v>
       </c>
       <c r="F355">
         <v>27.1386114713643</v>
       </c>
       <c r="G355">
-        <v>18.00019772496459</v>
+        <v>18.0001977249646</v>
       </c>
       <c r="H355">
-        <v>29.051177763176291</v>
-      </c>
-    </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+        <v>29.0511777631763</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8">
       <c r="A356" s="2">
         <v>47300</v>
       </c>
       <c r="D356">
-        <v>25.629794434947431</v>
+        <v>25.6297944349474</v>
       </c>
       <c r="E356">
-        <v>22.008344748129598</v>
+        <v>22.0083447481296</v>
       </c>
       <c r="F356">
-        <v>29.25124412176525</v>
+        <v>29.2512441217653</v>
       </c>
       <c r="G356">
-        <v>20.09126508597776</v>
+        <v>20.0912650859778</v>
       </c>
       <c r="H356">
-        <v>31.168323783917099</v>
-      </c>
-    </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+        <v>31.1683237839171</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8">
       <c r="A357" s="2">
         <v>47331</v>
       </c>
       <c r="D357">
-        <v>26.032522286736281</v>
+        <v>26.0325222867363</v>
       </c>
       <c r="E357">
-        <v>22.403790887924629</v>
+        <v>22.4037908879246</v>
       </c>
       <c r="F357">
-        <v>29.66125368554793</v>
+        <v>29.6612536855479</v>
       </c>
       <c r="G357">
-        <v>20.482856520288461</v>
+        <v>20.4828565202885</v>
       </c>
       <c r="H357">
-        <v>31.582188053184101</v>
-      </c>
-    </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+        <v>31.5821880531841</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8">
       <c r="A358" s="2">
         <v>47362</v>
       </c>
       <c r="D358">
-        <v>24.461980786293761</v>
+        <v>24.4619807862938</v>
       </c>
       <c r="E358">
-        <v>20.827028346960141</v>
+        <v>20.8270283469601</v>
       </c>
       <c r="F358">
-        <v>28.096933225627389</v>
+        <v>28.0969332256274</v>
       </c>
       <c r="G358">
-        <v>18.902800759400041</v>
+        <v>18.9028007594</v>
       </c>
       <c r="H358">
-        <v>30.021160813187489</v>
-      </c>
-    </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30.0211608131875</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8">
       <c r="A359" s="2">
         <v>47392</v>
       </c>
       <c r="D359">
-        <v>22.956580777205769</v>
+        <v>22.9565807772058</v>
       </c>
       <c r="E359">
-        <v>19.316312023939261</v>
+        <v>19.3163120239393</v>
       </c>
       <c r="F359">
-        <v>26.596849530472291</v>
+        <v>26.5968495304723</v>
       </c>
       <c r="G359">
-        <v>17.389270149781321</v>
+        <v>17.3892701497813</v>
       </c>
       <c r="H359">
-        <v>28.52389140463022</v>
-      </c>
-    </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+        <v>28.5238914046302</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8">
       <c r="A360" s="2">
         <v>47423</v>
       </c>
@@ -4946,99 +5528,99 @@
         <v>18.670424461549</v>
       </c>
       <c r="E360">
-        <v>15.025611500074261</v>
+        <v>15.0256115000743</v>
       </c>
       <c r="F360">
-        <v>22.315237423023749</v>
+        <v>22.3152374230237</v>
       </c>
       <c r="G360">
-        <v>13.09616406739973</v>
+        <v>13.0961640673997</v>
       </c>
       <c r="H360">
-        <v>24.244684855698281</v>
-      </c>
-    </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+        <v>24.2446848556983</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8">
       <c r="A361" s="2">
         <v>47453</v>
       </c>
       <c r="D361">
-        <v>18.973045085764479</v>
+        <v>18.9730450857645</v>
       </c>
       <c r="E361">
-        <v>15.324347129536401</v>
+        <v>15.3243471295364</v>
       </c>
       <c r="F361">
-        <v>22.621743041992559</v>
+        <v>22.6217430419926</v>
       </c>
       <c r="G361">
-        <v>13.392843104868801</v>
+        <v>13.3928431048688</v>
       </c>
       <c r="H361">
-        <v>24.553247066660159</v>
-      </c>
-    </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+        <v>24.5532470666602</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8">
       <c r="A362" s="2">
         <v>47484</v>
       </c>
       <c r="D362">
-        <v>17.788239655799028</v>
+        <v>17.788239655799</v>
       </c>
       <c r="E362">
-        <v>14.116236828986359</v>
+        <v>14.1162368289864</v>
       </c>
       <c r="F362">
-        <v>21.460242482611701</v>
+        <v>21.4602424826117</v>
       </c>
       <c r="G362">
-        <v>12.17239595104439</v>
+        <v>12.1723959510444</v>
       </c>
       <c r="H362">
-        <v>23.40408336055367</v>
-      </c>
-    </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+        <v>23.4040833605537</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8">
       <c r="A363" s="2">
         <v>47515</v>
       </c>
       <c r="D363">
-        <v>17.740761276663221</v>
+        <v>17.7407612766632</v>
       </c>
       <c r="E363">
-        <v>14.04496933662076</v>
+        <v>14.0449693366208</v>
       </c>
       <c r="F363">
-        <v>21.436553216705679</v>
+        <v>21.4365532167057</v>
       </c>
       <c r="G363">
-        <v>12.088535262832529</v>
+        <v>12.0885352628325</v>
       </c>
       <c r="H363">
-        <v>23.39298729049391</v>
-      </c>
-    </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+        <v>23.3929872904939</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8">
       <c r="A364" s="2">
         <v>47543</v>
       </c>
       <c r="D364">
-        <v>18.663171350519999</v>
+        <v>18.66317135052</v>
       </c>
       <c r="E364">
-        <v>14.94713849663979</v>
+        <v>14.9471384966398</v>
       </c>
       <c r="F364">
-        <v>22.37920420440021</v>
+        <v>22.3792042044002</v>
       </c>
       <c r="G364">
-        <v>12.97998953030371</v>
+        <v>12.9799895303037</v>
       </c>
       <c r="H364">
         <v>24.3463531707363</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8">
       <c r="A365" s="2">
         <v>47574</v>
       </c>
@@ -5046,1139 +5628,1139 @@
         <v>21.2841248035013</v>
       </c>
       <c r="E365">
-        <v>17.550854261582302</v>
+        <v>17.5508542615823</v>
       </c>
       <c r="F365">
-        <v>25.017395345420301</v>
+        <v>25.0173953454203</v>
       </c>
       <c r="G365">
-        <v>15.574580214403049</v>
+        <v>15.574580214403</v>
       </c>
       <c r="H365">
-        <v>26.99366939259955</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+        <v>26.9936693925995</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8">
       <c r="A366" s="2">
         <v>47604</v>
       </c>
       <c r="D366">
-        <v>22.642254095267251</v>
+        <v>22.6422540952673</v>
       </c>
       <c r="E366">
-        <v>18.894292232021439</v>
+        <v>18.8942922320214</v>
       </c>
       <c r="F366">
-        <v>26.39021595851305</v>
+        <v>26.390215958513</v>
       </c>
       <c r="G366">
-        <v>16.910241069111908</v>
+        <v>16.9102410691119</v>
       </c>
       <c r="H366">
-        <v>28.37426712142258</v>
-      </c>
-    </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+        <v>28.3742671214226</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8">
       <c r="A367" s="2">
         <v>47635</v>
       </c>
       <c r="D367">
-        <v>24.339417405775691</v>
+        <v>24.3394174057757</v>
       </c>
       <c r="E367">
-        <v>20.578926359916679</v>
+        <v>20.5789263599167</v>
       </c>
       <c r="F367">
         <v>28.0999084516347</v>
       </c>
       <c r="G367">
-        <v>18.588242648373779</v>
+        <v>18.5882426483738</v>
       </c>
       <c r="H367">
-        <v>30.090592163177611</v>
-      </c>
-    </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30.0905921631776</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8">
       <c r="A368" s="2">
         <v>47665</v>
       </c>
       <c r="D368">
-        <v>26.44212095239169</v>
+        <v>26.4421209523917</v>
       </c>
       <c r="E368">
-        <v>22.670938846775361</v>
+        <v>22.6709388467754</v>
       </c>
       <c r="F368">
-        <v>30.21330305800802</v>
+        <v>30.213303058008</v>
       </c>
       <c r="G368">
-        <v>20.674595630061859</v>
+        <v>20.6745956300619</v>
       </c>
       <c r="H368">
-        <v>32.209646274721521</v>
-      </c>
-    </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+        <v>32.2096462747215</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8">
       <c r="A369" s="2">
         <v>47696</v>
       </c>
       <c r="D369">
-        <v>26.840950244421379</v>
+        <v>26.8409502444214</v>
       </c>
       <c r="E369">
-        <v>23.060641343823121</v>
+        <v>23.0606413438231</v>
       </c>
       <c r="F369">
-        <v>30.621259145019639</v>
+        <v>30.6212591450196</v>
       </c>
       <c r="G369">
-        <v>21.059466693691071</v>
+        <v>21.0594666936911</v>
       </c>
       <c r="H369">
-        <v>32.622433795151693</v>
-      </c>
-    </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+        <v>32.6224337951517</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8">
       <c r="A370" s="2">
         <v>47727</v>
       </c>
       <c r="D370">
-        <v>25.26927246584091</v>
+        <v>25.2692724658409</v>
       </c>
       <c r="E370">
-        <v>21.48116912948981</v>
+        <v>21.4811691294898</v>
       </c>
       <c r="F370">
-        <v>29.05737580219202</v>
+        <v>29.057375802192</v>
       </c>
       <c r="G370">
-        <v>19.47586835431062</v>
+        <v>19.4758683543106</v>
       </c>
       <c r="H370">
-        <v>31.06267657737121</v>
-      </c>
-    </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
+        <v>31.0626765773712</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8">
       <c r="A371" s="2">
         <v>47757</v>
       </c>
       <c r="D371">
-        <v>23.758812450001699</v>
+        <v>23.7588124500017</v>
       </c>
       <c r="E371">
-        <v>19.964050341989601</v>
+        <v>19.9640503419896</v>
       </c>
       <c r="F371">
-        <v>27.553574558013789</v>
+        <v>27.5535745580138</v>
       </c>
       <c r="G371">
-        <v>17.955224626018701</v>
+        <v>17.9552246260187</v>
       </c>
       <c r="H371">
         <v>29.5624002739847</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8">
       <c r="A372" s="2">
         <v>47788</v>
       </c>
       <c r="D372">
-        <v>19.415371728743391</v>
+        <v>19.4153717287434</v>
       </c>
       <c r="E372">
-        <v>15.61491945600299</v>
+        <v>15.614919456003</v>
       </c>
       <c r="F372">
-        <v>23.215824001483799</v>
+        <v>23.2158240014838</v>
       </c>
       <c r="G372">
-        <v>13.60308154877767</v>
+        <v>13.6030815487777</v>
       </c>
       <c r="H372">
-        <v>25.22766190870912</v>
-      </c>
-    </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25.2276619087091</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8">
       <c r="A373" s="2">
         <v>47818</v>
       </c>
       <c r="D373">
-        <v>19.721990219056948</v>
+        <v>19.7219902190569</v>
       </c>
       <c r="E373">
-        <v>15.916674340516099</v>
+        <v>15.9166743405161</v>
       </c>
       <c r="F373">
-        <v>23.527306097597791</v>
+        <v>23.5273060975978</v>
       </c>
       <c r="G373">
-        <v>13.90226179590214</v>
+        <v>13.9022617959021</v>
       </c>
       <c r="H373">
-        <v>25.541718642211759</v>
-      </c>
-    </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25.5417186422118</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8">
       <c r="A374" s="2">
         <v>47849</v>
       </c>
       <c r="D374">
-        <v>18.536221356825589</v>
+        <v>18.5362213568256</v>
       </c>
       <c r="E374">
-        <v>14.70370115413356</v>
+        <v>14.7037011541336</v>
       </c>
       <c r="F374">
-        <v>22.36874155951762</v>
+        <v>22.3687415595176</v>
       </c>
       <c r="G374">
-        <v>12.67488751021877</v>
+        <v>12.6748875102188</v>
       </c>
       <c r="H374">
-        <v>24.397555203432411</v>
-      </c>
-    </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+        <v>24.3975552034324</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8">
       <c r="A375" s="2">
         <v>47880</v>
       </c>
       <c r="D375">
-        <v>18.490554716629219</v>
+        <v>18.4905547166292</v>
       </c>
       <c r="E375">
-        <v>14.630389037062869</v>
+        <v>14.6303890370629</v>
       </c>
       <c r="F375">
-        <v>22.35072039619557</v>
+        <v>22.3507203961956</v>
       </c>
       <c r="G375">
-        <v>12.58694076170223</v>
+        <v>12.5869407617022</v>
       </c>
       <c r="H375">
-        <v>24.394168671556201</v>
-      </c>
-    </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+        <v>24.3941686715562</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8">
       <c r="A376" s="2">
         <v>47908</v>
       </c>
       <c r="D376">
-        <v>19.435167174099892</v>
+        <v>19.4351671740999</v>
       </c>
       <c r="E376">
-        <v>15.55149513491059</v>
+        <v>15.5514951349106</v>
       </c>
       <c r="F376">
-        <v>23.318839213289181</v>
+        <v>23.3188392132892</v>
       </c>
       <c r="G376">
-        <v>13.495603344421641</v>
+        <v>13.4956033444216</v>
       </c>
       <c r="H376">
-        <v>25.374731003778141</v>
-      </c>
-    </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25.3747310037781</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8">
       <c r="A377" s="2">
         <v>47939</v>
       </c>
       <c r="D377">
-        <v>22.07207904368639</v>
+        <v>22.0720790436864</v>
       </c>
       <c r="E377">
-        <v>18.168399573687481</v>
+        <v>18.1683995736875</v>
       </c>
       <c r="F377">
-        <v>25.975758513685289</v>
+        <v>25.9757585136853</v>
       </c>
       <c r="G377">
-        <v>16.10191648909975</v>
+        <v>16.1019164890998</v>
       </c>
       <c r="H377">
-        <v>28.042241598273019</v>
-      </c>
-    </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+        <v>28.042241598273</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8">
       <c r="A378" s="2">
         <v>47969</v>
       </c>
       <c r="D378">
-        <v>23.436596219760101</v>
+        <v>23.4365962197601</v>
       </c>
       <c r="E378">
-        <v>19.515872836639812</v>
+        <v>19.5158728366398</v>
       </c>
       <c r="F378">
-        <v>27.357319602880398</v>
+        <v>27.3573196028804</v>
       </c>
       <c r="G378">
-        <v>17.440367249453889</v>
+        <v>17.4403672494539</v>
       </c>
       <c r="H378">
-        <v>29.432825190066321</v>
-      </c>
-    </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+        <v>29.4328251900663</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8">
       <c r="A379" s="2">
         <v>48000</v>
       </c>
       <c r="D379">
-        <v>25.13397879122655</v>
+        <v>25.1339787912265</v>
       </c>
       <c r="E379">
-        <v>21.198725607604771</v>
+        <v>21.1987256076048</v>
       </c>
       <c r="F379">
-        <v>29.069231974848339</v>
+        <v>29.0692319748483</v>
       </c>
       <c r="G379">
-        <v>19.115528408648601</v>
+        <v>19.1155284086486</v>
       </c>
       <c r="H379">
-        <v>31.15242917380451</v>
-      </c>
-    </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+        <v>31.1524291738045</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8">
       <c r="A380" s="2">
         <v>48030</v>
       </c>
       <c r="D380">
-        <v>27.23683079533717</v>
+        <v>27.2368307953372</v>
       </c>
       <c r="E380">
-        <v>23.28918356936946</v>
+        <v>23.2891835693695</v>
       </c>
       <c r="F380">
-        <v>31.18447802130488</v>
+        <v>31.1844780213049</v>
       </c>
       <c r="G380">
-        <v>21.199425360716059</v>
+        <v>21.1994253607161</v>
       </c>
       <c r="H380">
-        <v>33.274236229958277</v>
-      </c>
-    </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
+        <v>33.2742362299583</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8">
       <c r="A381" s="2">
         <v>48061</v>
       </c>
       <c r="D381">
-        <v>27.634527862055879</v>
+        <v>27.6345278620559</v>
       </c>
       <c r="E381">
-        <v>23.676303009339559</v>
+        <v>23.6763030093396</v>
       </c>
       <c r="F381">
-        <v>31.592752714772189</v>
+        <v>31.5927527147722</v>
       </c>
       <c r="G381">
-        <v>21.580945343323169</v>
+        <v>21.5809453433232</v>
       </c>
       <c r="H381">
-        <v>33.688110380788594</v>
-      </c>
-    </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
+        <v>33.6881103807886</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8">
       <c r="A382" s="2">
         <v>48092</v>
       </c>
       <c r="D382">
-        <v>26.062825145021119</v>
+        <v>26.0628251450211</v>
       </c>
       <c r="E382">
-        <v>22.095568973952538</v>
+        <v>22.0955689739525</v>
       </c>
       <c r="F382">
-        <v>30.03008131608971</v>
+        <v>30.0300813160897</v>
       </c>
       <c r="G382">
-        <v>19.995430416792299</v>
+        <v>19.9954304167923</v>
       </c>
       <c r="H382">
-        <v>32.130219873249942</v>
-      </c>
-    </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
+        <v>32.1302198732499</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8">
       <c r="A383" s="2">
         <v>48122</v>
       </c>
       <c r="D383">
-        <v>24.550083576810209</v>
+        <v>24.5500835768102</v>
       </c>
       <c r="E383">
-        <v>20.575113524376281</v>
+        <v>20.5751135243763</v>
       </c>
       <c r="F383">
-        <v>28.52505362924413</v>
+        <v>28.5250536292441</v>
       </c>
       <c r="G383">
-        <v>18.47089148508579</v>
+        <v>18.4708914850858</v>
       </c>
       <c r="H383">
-        <v>30.629275668534621</v>
-      </c>
-    </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30.6292756685346</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8">
       <c r="A384" s="2">
         <v>48153</v>
       </c>
       <c r="D384">
-        <v>20.18525389812433</v>
+        <v>20.1852538981243</v>
       </c>
       <c r="E384">
-        <v>16.203693177725249</v>
+        <v>16.2036931777252</v>
       </c>
       <c r="F384">
-        <v>24.166814618523411</v>
+        <v>24.1668146185234</v>
       </c>
       <c r="G384">
-        <v>14.09598224956189</v>
+        <v>14.0959822495619</v>
       </c>
       <c r="H384">
-        <v>26.274525546686771</v>
-      </c>
-    </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
+        <v>26.2745255466868</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8">
       <c r="A385" s="2">
         <v>48183</v>
       </c>
       <c r="D385">
-        <v>20.493560645590179</v>
+        <v>20.4935606455902</v>
       </c>
       <c r="E385">
-        <v>16.506367439309422</v>
+        <v>16.5063674393094</v>
       </c>
       <c r="F385">
-        <v>24.48075385187094</v>
+        <v>24.4807538518709</v>
       </c>
       <c r="G385">
-        <v>14.39567485322867</v>
+        <v>14.3956748532287</v>
       </c>
       <c r="H385">
-        <v>26.591446437951689</v>
-      </c>
-    </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+        <v>26.5914464379517</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8">
       <c r="A386" s="2">
         <v>48214</v>
       </c>
       <c r="D386">
-        <v>19.308388647838711</v>
+        <v>19.3083886478387</v>
       </c>
       <c r="E386">
-        <v>15.292116800864269</v>
+        <v>15.2921168008643</v>
       </c>
       <c r="F386">
-        <v>23.324660494813148</v>
+        <v>23.3246604948131</v>
       </c>
       <c r="G386">
-        <v>13.166030912239581</v>
+        <v>13.1660309122396</v>
       </c>
       <c r="H386">
-        <v>25.450746383437849</v>
-      </c>
-    </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25.4507463834378</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8">
       <c r="A387" s="2">
         <v>48245</v>
       </c>
       <c r="D387">
-        <v>19.263247761073298</v>
+        <v>19.2632477610733</v>
       </c>
       <c r="E387">
-        <v>15.217561395378629</v>
+        <v>15.2175613953786</v>
       </c>
       <c r="F387">
-        <v>23.308934126767969</v>
+        <v>23.308934126768</v>
       </c>
       <c r="G387">
-        <v>13.07590440112301</v>
+        <v>13.075904401123</v>
       </c>
       <c r="H387">
-        <v>25.450591121023599</v>
-      </c>
-    </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25.4505911210236</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8">
       <c r="A388" s="2">
         <v>48274</v>
       </c>
       <c r="D388">
-        <v>20.214482803058839</v>
+        <v>20.2144828030588</v>
       </c>
       <c r="E388">
-        <v>16.143788410443609</v>
+        <v>16.1437884104436</v>
       </c>
       <c r="F388">
-        <v>24.28517719567407</v>
+        <v>24.2851771956741</v>
       </c>
       <c r="G388">
-        <v>13.988892966410679</v>
+        <v>13.9888929664107</v>
       </c>
       <c r="H388">
-        <v>26.440072639707001</v>
-      </c>
-    </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
+        <v>26.440072639707</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8">
       <c r="A389" s="2">
         <v>48305</v>
       </c>
       <c r="D389">
-        <v>22.855480254173901</v>
+        <v>22.8554802541739</v>
       </c>
       <c r="E389">
-        <v>18.763502071317632</v>
+        <v>18.7635020713176</v>
       </c>
       <c r="F389">
-        <v>26.947458437030161</v>
+        <v>26.9474584370302</v>
       </c>
       <c r="G389">
         <v>16.5973396693167</v>
       </c>
       <c r="H389">
-        <v>29.113620839031089</v>
-      </c>
-    </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+        <v>29.1136208390311</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8">
       <c r="A390" s="2">
         <v>48335</v>
       </c>
       <c r="D390">
-        <v>24.221751618264189</v>
+        <v>24.2217516182642</v>
       </c>
       <c r="E390">
-        <v>20.111643491733581</v>
+        <v>20.1116434917336</v>
       </c>
       <c r="F390">
-        <v>28.331859744794809</v>
+        <v>28.3318597447948</v>
       </c>
       <c r="G390">
-        <v>17.935883677287428</v>
+        <v>17.9358836772874</v>
       </c>
       <c r="H390">
-        <v>30.507619559240961</v>
-      </c>
-    </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30.507619559241</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8">
       <c r="A391" s="2">
         <v>48366</v>
       </c>
       <c r="D391">
-        <v>25.91856126726427</v>
+        <v>25.9185612672643</v>
       </c>
       <c r="E391">
-        <v>21.79299842003639</v>
+        <v>21.7929984200364</v>
       </c>
       <c r="F391">
-        <v>30.044124114492149</v>
+        <v>30.0441241144921</v>
       </c>
       <c r="G391">
-        <v>19.609057370644241</v>
+        <v>19.6090573706442</v>
       </c>
       <c r="H391">
-        <v>32.228065163884303</v>
-      </c>
-    </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+        <v>32.2280651638843</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8">
       <c r="A392" s="2">
         <v>48396</v>
       </c>
       <c r="D392">
-        <v>28.02103060292561</v>
+        <v>28.0210306029256</v>
       </c>
       <c r="E392">
-        <v>23.882285403997368</v>
+        <v>23.8822854039974</v>
       </c>
       <c r="F392">
-        <v>32.15977580185384</v>
+        <v>32.1597758018538</v>
       </c>
       <c r="G392">
-        <v>21.691366039143301</v>
+        <v>21.6913660391433</v>
       </c>
       <c r="H392">
-        <v>34.350695166707908</v>
-      </c>
-    </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+        <v>34.3506951667079</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8">
       <c r="A393" s="2">
         <v>48427</v>
       </c>
       <c r="D393">
-        <v>28.417892923485599</v>
+        <v>28.4178929234856</v>
       </c>
       <c r="E393">
-        <v>24.267897791417589</v>
+        <v>24.2678977914176</v>
       </c>
       <c r="F393">
-        <v>32.56788805555361</v>
+        <v>32.5678880555536</v>
       </c>
       <c r="G393">
-        <v>22.071023071695169</v>
+        <v>22.0710230716952</v>
       </c>
       <c r="H393">
-        <v>34.764762775276019</v>
-      </c>
-    </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+        <v>34.764762775276</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8">
       <c r="A394" s="2">
         <v>48458</v>
       </c>
       <c r="D394">
-        <v>26.845743462990239</v>
+        <v>26.8457434629902</v>
       </c>
       <c r="E394">
-        <v>22.68614332862262</v>
+        <v>22.6861433286226</v>
       </c>
       <c r="F394">
-        <v>31.005343597357861</v>
+        <v>31.0053435973579</v>
       </c>
       <c r="G394">
-        <v>20.484184027819179</v>
+        <v>20.4841840278192</v>
       </c>
       <c r="H394">
-        <v>33.207302898161302</v>
-      </c>
-    </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+        <v>33.2073028981613</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8">
       <c r="A395" s="2">
         <v>48488</v>
       </c>
       <c r="D395">
-        <v>25.331591542585102</v>
+        <v>25.3315915425851</v>
       </c>
       <c r="E395">
-        <v>21.163787773982961</v>
+        <v>21.163787773983</v>
       </c>
       <c r="F395">
-        <v>29.499395311187239</v>
+        <v>29.4993953111872</v>
       </c>
       <c r="G395">
-        <v>18.957485731540999</v>
+        <v>18.957485731541</v>
       </c>
       <c r="H395">
-        <v>31.705697353629201</v>
-      </c>
-    </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
+        <v>31.7056973536292</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8">
       <c r="A396" s="2">
         <v>48519</v>
       </c>
       <c r="D396">
-        <v>20.96089485385184</v>
+        <v>20.9608948538518</v>
       </c>
       <c r="E396">
-        <v>16.786082153807861</v>
+        <v>16.7860821538079</v>
       </c>
       <c r="F396">
-        <v>25.13570755389582</v>
+        <v>25.1357075538958</v>
       </c>
       <c r="G396">
-        <v>14.57606980718317</v>
+        <v>14.5760698071832</v>
       </c>
       <c r="H396">
-        <v>27.34571990052051</v>
-      </c>
-    </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
+        <v>27.3457199005205</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8">
       <c r="A397" s="2">
         <v>48549</v>
       </c>
       <c r="D397">
-        <v>21.269210865037142</v>
+        <v>21.2692108650371</v>
       </c>
       <c r="E397">
-        <v>17.088408351755501</v>
+        <v>17.0884083517555</v>
       </c>
       <c r="F397">
-        <v>25.450013378318779</v>
+        <v>25.4500133783188</v>
       </c>
       <c r="G397">
-        <v>14.875225189537311</v>
+        <v>14.8752251895373</v>
       </c>
       <c r="H397">
-        <v>27.663196540536958</v>
-      </c>
-    </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
+        <v>27.663196540537</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8">
       <c r="A398" s="2">
         <v>48580</v>
       </c>
       <c r="D398">
-        <v>20.084271105556351</v>
+        <v>20.0842711055564</v>
       </c>
       <c r="E398">
-        <v>15.874150435112551</v>
+        <v>15.8741504351126</v>
       </c>
       <c r="F398">
-        <v>24.29439177600015</v>
+        <v>24.2943917760002</v>
       </c>
       <c r="G398">
-        <v>13.64544717799096</v>
+        <v>13.645447177991</v>
       </c>
       <c r="H398">
-        <v>26.523095033121749</v>
-      </c>
-    </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
+        <v>26.5230950331217</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8">
       <c r="A399" s="2">
         <v>48611</v>
       </c>
       <c r="D399">
-        <v>20.038778993346881</v>
+        <v>20.0387789933469</v>
       </c>
       <c r="E399">
-        <v>15.799084690957599</v>
+        <v>15.7990846909576</v>
       </c>
       <c r="F399">
-        <v>24.27847329573617</v>
+        <v>24.2784732957362</v>
       </c>
       <c r="G399">
-        <v>13.55472609875153</v>
+        <v>13.5547260987515</v>
       </c>
       <c r="H399">
-        <v>26.522831887942228</v>
-      </c>
-    </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
+        <v>26.5228318879422</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8">
       <c r="A400" s="2">
         <v>48639</v>
       </c>
       <c r="D400">
-        <v>20.990384441693241</v>
+        <v>20.9903844416932</v>
       </c>
       <c r="E400">
-        <v>16.72553998495157</v>
+        <v>16.7255399849516</v>
       </c>
       <c r="F400">
-        <v>25.255228898434911</v>
+        <v>25.2552288984349</v>
       </c>
       <c r="G400">
-        <v>14.467867705250571</v>
+        <v>14.4678677052506</v>
       </c>
       <c r="H400">
-        <v>27.512901178135909</v>
-      </c>
-    </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
+        <v>27.5129011781359</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8">
       <c r="A401" s="2">
         <v>48670</v>
       </c>
       <c r="D401">
-        <v>23.631089749557589</v>
+        <v>23.6310897495576</v>
       </c>
       <c r="E401">
-        <v>19.344835669726201</v>
+        <v>19.3448356697262</v>
       </c>
       <c r="F401">
-        <v>27.91734382938898</v>
+        <v>27.917343829389</v>
       </c>
       <c r="G401">
-        <v>17.075829820170831</v>
+        <v>17.0758298201708</v>
       </c>
       <c r="H401">
-        <v>30.18634967894435</v>
-      </c>
-    </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30.1863496789443</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8">
       <c r="A402" s="2">
         <v>48700</v>
       </c>
       <c r="D402">
-        <v>24.99730270729037</v>
+        <v>24.9973027072904</v>
       </c>
       <c r="E402">
-        <v>20.69280801704134</v>
+        <v>20.6928080170413</v>
       </c>
       <c r="F402">
-        <v>29.30179739753941</v>
+        <v>29.3017973975394</v>
       </c>
       <c r="G402">
-        <v>18.414146171605591</v>
+        <v>18.4141461716056</v>
       </c>
       <c r="H402">
-        <v>31.580459242975159</v>
-      </c>
-    </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
+        <v>31.5804592429752</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8">
       <c r="A403" s="2">
         <v>48731</v>
       </c>
       <c r="D403">
-        <v>26.693555266656691</v>
+        <v>26.6935552666567</v>
       </c>
       <c r="E403">
-        <v>22.373509023176918</v>
+        <v>22.3735090231769</v>
       </c>
       <c r="F403">
-        <v>31.013601510136461</v>
+        <v>31.0136015101365</v>
       </c>
       <c r="G403">
-        <v>20.08661468274834</v>
+        <v>20.0866146827483</v>
       </c>
       <c r="H403">
-        <v>33.300495850565042</v>
-      </c>
-    </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
+        <v>33.300495850565</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8">
       <c r="A404" s="2">
         <v>48761</v>
       </c>
       <c r="D404">
-        <v>28.795739496453852</v>
+        <v>28.7957394964539</v>
       </c>
       <c r="E404">
-        <v>24.462426510840618</v>
+        <v>24.4624265108406</v>
       </c>
       <c r="F404">
-        <v>33.129052482067067</v>
+        <v>33.1290524820671</v>
       </c>
       <c r="G404">
-        <v>22.168509181353372</v>
+        <v>22.1685091813534</v>
       </c>
       <c r="H404">
-        <v>35.422969811554331</v>
-      </c>
-    </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
+        <v>35.4229698115543</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8">
       <c r="A405" s="2">
         <v>48792</v>
       </c>
       <c r="D405">
-        <v>29.192319871085601</v>
+        <v>29.1923198710856</v>
       </c>
       <c r="E405">
-        <v>24.847683637266769</v>
+        <v>24.8476836372668</v>
       </c>
       <c r="F405">
-        <v>33.536956104904426</v>
+        <v>33.5369561049044</v>
       </c>
       <c r="G405">
-        <v>22.54777214225971</v>
+        <v>22.5477721422597</v>
       </c>
       <c r="H405">
         <v>35.8368675999115</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:8">
       <c r="A406" s="2">
         <v>48823</v>
       </c>
       <c r="D406">
-        <v>27.62007720258023</v>
+        <v>27.6200772025802</v>
       </c>
       <c r="E406">
-        <v>23.265772434275078</v>
+        <v>23.2657724342751</v>
       </c>
       <c r="F406">
-        <v>31.974381970885389</v>
+        <v>31.9743819708854</v>
       </c>
       <c r="G406">
-        <v>20.96074272627888</v>
+        <v>20.9607427262789</v>
       </c>
       <c r="H406">
-        <v>34.279411678881587</v>
-      </c>
-    </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
+        <v>34.2794116788816</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8">
       <c r="A407" s="2">
         <v>48853</v>
       </c>
       <c r="D407">
-        <v>26.105630232036791</v>
+        <v>26.1056302320368</v>
       </c>
       <c r="E407">
-        <v>21.743066887466291</v>
+        <v>21.7430668874663</v>
       </c>
       <c r="F407">
-        <v>30.46819357660728</v>
+        <v>30.4681935766073</v>
       </c>
       <c r="G407">
-        <v>19.433665353277341</v>
+        <v>19.4336653532773</v>
       </c>
       <c r="H407">
-        <v>32.777595110796227</v>
-      </c>
-    </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
+        <v>32.7775951107962</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8">
       <c r="A408" s="2">
         <v>48884</v>
       </c>
       <c r="D408">
-        <v>21.73519349494978</v>
+        <v>21.7351934949498</v>
       </c>
       <c r="E408">
-        <v>17.365573784912609</v>
+        <v>17.3655737849126</v>
       </c>
       <c r="F408">
-        <v>26.104813204986961</v>
+        <v>26.104813204987</v>
       </c>
       <c r="G408">
-        <v>15.052436836484951</v>
+        <v>15.052436836485</v>
       </c>
       <c r="H408">
-        <v>28.417950153414619</v>
-      </c>
-    </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
+        <v>28.4179501534146</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8">
       <c r="A409" s="2">
         <v>48914</v>
       </c>
       <c r="D409">
-        <v>22.043755335299551</v>
+        <v>22.0437553352996</v>
       </c>
       <c r="E409">
-        <v>17.66810491613435</v>
+        <v>17.6681049161344</v>
       </c>
       <c r="F409">
-        <v>26.419405754464751</v>
+        <v>26.4194057544648</v>
       </c>
       <c r="G409">
-        <v>15.35177550313656</v>
+        <v>15.3517755031366</v>
       </c>
       <c r="H409">
-        <v>28.73573516746254</v>
-      </c>
-    </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
+        <v>28.7357351674625</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8">
       <c r="A410" s="2">
         <v>48945</v>
       </c>
       <c r="D410">
-        <v>20.859597273757458</v>
+        <v>20.8595972737575</v>
       </c>
       <c r="E410">
-        <v>16.455268682411141</v>
+        <v>16.4552686824111</v>
       </c>
       <c r="F410">
-        <v>25.263925865103779</v>
+        <v>25.2639258651038</v>
       </c>
       <c r="G410">
-        <v>14.123757962094279</v>
+        <v>14.1237579620943</v>
       </c>
       <c r="H410">
-        <v>27.595436585420639</v>
-      </c>
-    </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
+        <v>27.5954365854206</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8">
       <c r="A411" s="2">
         <v>48976</v>
       </c>
       <c r="D411">
-        <v>20.814310490857569</v>
+        <v>20.8143104908576</v>
       </c>
       <c r="E411">
-        <v>16.381090448527221</v>
+        <v>16.3810904485272</v>
       </c>
       <c r="F411">
-        <v>25.247530533187909</v>
+        <v>25.2475305331879</v>
       </c>
       <c r="G411">
         <v>14.034285517913</v>
       </c>
       <c r="H411">
-        <v>27.594335463802128</v>
-      </c>
-    </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
+        <v>27.5943354638021</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8">
       <c r="A412" s="2">
         <v>49004</v>
       </c>
       <c r="D412">
-        <v>21.76529462431392</v>
+        <v>21.7652946243139</v>
       </c>
       <c r="E412">
-        <v>17.307494172298451</v>
+        <v>17.3074941722985</v>
       </c>
       <c r="F412">
-        <v>26.22309507632939</v>
+        <v>26.2230950763294</v>
       </c>
       <c r="G412">
-        <v>14.947677158797569</v>
+        <v>14.9476771587976</v>
       </c>
       <c r="H412">
-        <v>28.58291208983028</v>
-      </c>
-    </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
+        <v>28.5829120898303</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8">
       <c r="A413" s="2">
         <v>49035</v>
       </c>
       <c r="D413">
-        <v>24.405270400152379</v>
+        <v>24.4052704001524</v>
       </c>
       <c r="E413">
-        <v>19.926537926082421</v>
+        <v>19.9265379260824</v>
       </c>
       <c r="F413">
-        <v>28.884002874222329</v>
+        <v>28.8840028742223</v>
       </c>
       <c r="G413">
-        <v>17.555640169443109</v>
+        <v>17.5556401694431</v>
       </c>
       <c r="H413">
-        <v>31.254900630861641</v>
-      </c>
-    </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
+        <v>31.2549006308616</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8">
       <c r="A414" s="2">
         <v>49065</v>
       </c>
       <c r="D414">
-        <v>25.771343992400549</v>
+        <v>25.7713439924005</v>
       </c>
       <c r="E414">
-        <v>21.274772517120361</v>
+        <v>21.2747725171204</v>
       </c>
       <c r="F414">
-        <v>30.26791546768073</v>
+        <v>30.2679154676807</v>
       </c>
       <c r="G414">
-        <v>18.89443136367294</v>
+        <v>18.8944313636729</v>
       </c>
       <c r="H414">
-        <v>32.648256621128162</v>
-      </c>
-    </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
+        <v>32.6482566211282</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8">
       <c r="A415" s="2">
         <v>49096</v>
       </c>
       <c r="D415">
-        <v>27.46744029293296</v>
+        <v>27.467440292933</v>
       </c>
       <c r="E415">
-        <v>22.955655864073389</v>
+        <v>22.9556558640734</v>
       </c>
       <c r="F415">
-        <v>31.97922472179253</v>
+        <v>31.9792247217925</v>
       </c>
       <c r="G415">
-        <v>20.56726145946126</v>
+        <v>20.5672614594613</v>
       </c>
       <c r="H415">
-        <v>34.367619126404662</v>
-      </c>
-    </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
+        <v>34.3676191264047</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8">
       <c r="A416" s="2">
         <v>49126</v>
       </c>
       <c r="D416">
-        <v>29.569546793335949</v>
+        <v>29.5695467933359</v>
       </c>
       <c r="E416">
-        <v>25.044781736246279</v>
+        <v>25.0447817362463</v>
       </c>
       <c r="F416">
-        <v>34.094311850425612</v>
+        <v>34.0943118504256</v>
       </c>
       <c r="G416">
-        <v>22.649515802126931</v>
+        <v>22.6495158021269</v>
       </c>
       <c r="H416">
-        <v>36.489577784544963</v>
-      </c>
-    </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
+        <v>36.489577784545</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8">
       <c r="A417" s="2">
         <v>49157</v>
       </c>
       <c r="D417">
-        <v>29.966043906298179</v>
+        <v>29.9660439062982</v>
       </c>
       <c r="E417">
-        <v>25.43019782334428</v>
+        <v>25.4301978233443</v>
       </c>
       <c r="F417">
-        <v>34.501889989252078</v>
+        <v>34.5018899892521</v>
       </c>
       <c r="G417">
-        <v>23.02906594846716</v>
+        <v>23.0290659484672</v>
       </c>
       <c r="H417">
-        <v>36.903021864129201</v>
-      </c>
-    </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
+        <v>36.9030218641292</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8">
       <c r="A418" s="2">
         <v>49188</v>
       </c>
       <c r="D418">
-        <v>28.39368627802591</v>
+        <v>28.3936862780259</v>
       </c>
       <c r="E418">
-        <v>23.84837705494304</v>
+        <v>23.848377054943</v>
       </c>
       <c r="F418">
-        <v>32.938995501108778</v>
+        <v>32.9389955011088</v>
       </c>
       <c r="G418">
-        <v>21.442235696281742</v>
+        <v>21.4422356962817</v>
       </c>
       <c r="H418">
-        <v>35.345136859770079</v>
-      </c>
-    </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
+        <v>35.3451368597701</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8">
       <c r="A419" s="2">
         <v>49218</v>
       </c>
       <c r="D419">
-        <v>26.87906101601877</v>
+        <v>26.8790610160188</v>
       </c>
       <c r="E419">
-        <v>22.325667621051601</v>
+        <v>22.3256676210516</v>
       </c>
       <c r="F419">
-        <v>31.43245441098594</v>
+        <v>31.4324544109859</v>
       </c>
       <c r="G419">
-        <v>19.915246760299979</v>
+        <v>19.9152467603</v>
       </c>
       <c r="H419">
-        <v>33.842875271737547</v>
-      </c>
-    </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
+        <v>33.8428752717375</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8">
       <c r="A420" s="2">
         <v>49249</v>
       </c>
       <c r="D420">
-        <v>22.509762466470558</v>
+        <v>22.5097624664706</v>
       </c>
       <c r="E420">
-        <v>17.949460968888459</v>
+        <v>17.9494609688885</v>
       </c>
       <c r="F420">
-        <v>27.070063964052661</v>
+        <v>27.0700639640527</v>
       </c>
       <c r="G420">
         <v>15.5353831795109</v>
       </c>
       <c r="H420">
-        <v>29.484141753430229</v>
-      </c>
-    </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
+        <v>29.4841417534302</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8">
       <c r="A421" s="2">
         <v>49279</v>
       </c>
       <c r="D421">
-        <v>22.818078385404419</v>
+        <v>22.8180783854044</v>
       </c>
       <c r="E421">
-        <v>18.251872343517789</v>
+        <v>18.2518723435178</v>
       </c>
       <c r="F421">
-        <v>27.38428442729105</v>
+        <v>27.384284427291</v>
       </c>
       <c r="G421">
-        <v>15.83466887719332</v>
+        <v>15.8346688771933</v>
       </c>
       <c r="H421">
-        <v>29.801487893615519</v>
-      </c>
-    </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
+        <v>29.8014878936155</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8">
       <c r="A422" s="2">
         <v>49310</v>
       </c>
@@ -6186,239 +6768,240 @@
         <v>21.6339629908089</v>
       </c>
       <c r="E422">
-        <v>17.040050189166099</v>
+        <v>17.0400501891661</v>
       </c>
       <c r="F422">
-        <v>26.227875792451691</v>
+        <v>26.2278757924517</v>
       </c>
       <c r="G422">
-        <v>14.60817965019776</v>
+        <v>14.6081796501978</v>
       </c>
       <c r="H422">
-        <v>28.659746331420031</v>
-      </c>
-    </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
+        <v>28.65974633142</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8">
       <c r="A423" s="2">
         <v>49341</v>
       </c>
       <c r="D423">
-        <v>21.58846981209587</v>
+        <v>21.5884698120959</v>
       </c>
       <c r="E423">
-        <v>16.966653454811269</v>
+        <v>16.9666534548113</v>
       </c>
       <c r="F423">
-        <v>26.210286169380471</v>
+        <v>26.2102861693805</v>
       </c>
       <c r="G423">
-        <v>14.52001166575009</v>
+        <v>14.5200116657501</v>
       </c>
       <c r="H423">
-        <v>28.656927958441639</v>
-      </c>
-    </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
+        <v>28.6569279584416</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8">
       <c r="A424" s="2">
         <v>49369</v>
       </c>
       <c r="D424">
-        <v>22.538508615932528</v>
+        <v>22.5385086159325</v>
       </c>
       <c r="E424">
-        <v>17.892941817040889</v>
+        <v>17.8929418170409</v>
       </c>
       <c r="F424">
-        <v>27.184075414824171</v>
+        <v>27.1840754148242</v>
       </c>
       <c r="G424">
-        <v>15.43372730365394</v>
+        <v>15.4337273036539</v>
       </c>
       <c r="H424">
-        <v>29.643289928211111</v>
-      </c>
-    </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
+        <v>29.6432899282111</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8">
       <c r="A425" s="2">
         <v>49400</v>
       </c>
       <c r="D425">
-        <v>25.177689399559089</v>
+        <v>25.1776893995591</v>
       </c>
       <c r="E425">
-        <v>20.511889850934519</v>
+        <v>20.5118898509345</v>
       </c>
       <c r="F425">
-        <v>29.843488948183651</v>
+        <v>29.8434889481837</v>
       </c>
       <c r="G425">
-        <v>18.041964766815759</v>
+        <v>18.0419647668158</v>
       </c>
       <c r="H425">
-        <v>32.313414032302411</v>
-      </c>
-    </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
+        <v>32.3134140323024</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8">
       <c r="A426" s="2">
         <v>49430</v>
       </c>
       <c r="D426">
-        <v>26.54349978262189</v>
+        <v>26.5434997826219</v>
       </c>
       <c r="E426">
-        <v>21.860451798734381</v>
+        <v>21.8604517987344</v>
       </c>
       <c r="F426">
-        <v>31.226547766509409</v>
+        <v>31.2265477665094</v>
       </c>
       <c r="G426">
-        <v>19.38139594453563</v>
+        <v>19.3813959445356</v>
       </c>
       <c r="H426">
-        <v>33.705603620708153</v>
-      </c>
-    </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
+        <v>33.7056036207082</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8">
       <c r="A427" s="2">
         <v>49461</v>
       </c>
       <c r="D427">
-        <v>28.239518938798909</v>
+        <v>28.2395189387989</v>
       </c>
       <c r="E427">
-        <v>23.54175776448907</v>
+        <v>23.5417577644891</v>
       </c>
       <c r="F427">
-        <v>32.937280113108748</v>
+        <v>32.9372801131087</v>
       </c>
       <c r="G427">
-        <v>21.054913217760181</v>
+        <v>21.0549132177602</v>
       </c>
       <c r="H427">
-        <v>35.424124659837638</v>
-      </c>
-    </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
+        <v>35.4241246598376</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8">
       <c r="A428" s="2">
         <v>49491</v>
       </c>
       <c r="D428">
-        <v>30.341645808935031</v>
+        <v>30.341645808935</v>
       </c>
       <c r="E428">
-        <v>25.631327647390179</v>
+        <v>25.6313276473902</v>
       </c>
       <c r="F428">
-        <v>35.051963970479868</v>
+        <v>35.0519639704799</v>
       </c>
       <c r="G428">
-        <v>23.137835833150231</v>
+        <v>23.1378358331502</v>
       </c>
       <c r="H428">
-        <v>37.54545578471982</v>
-      </c>
-    </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
+        <v>37.5454557847198</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8">
       <c r="A429" s="2">
         <v>49522</v>
       </c>
       <c r="D429">
-        <v>30.73824712365089</v>
+        <v>30.7382471236509</v>
       </c>
       <c r="E429">
-        <v>26.017207566420989</v>
+        <v>26.017207566421</v>
       </c>
       <c r="F429">
-        <v>35.459286680880801</v>
+        <v>35.4592866808808</v>
       </c>
       <c r="G429">
-        <v>23.51804018814034</v>
+        <v>23.5180401881403</v>
       </c>
       <c r="H429">
-        <v>37.958454059161447</v>
-      </c>
-    </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
+        <v>37.9584540591614</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8">
       <c r="A430" s="2">
         <v>49553</v>
       </c>
       <c r="D430">
-        <v>29.16601492278053</v>
+        <v>29.1660149227805</v>
       </c>
       <c r="E430">
-        <v>24.435817888873771</v>
+        <v>24.4358178888738</v>
       </c>
       <c r="F430">
-        <v>33.896211956687303</v>
+        <v>33.8962119566873</v>
       </c>
       <c r="G430">
-        <v>21.931802835266382</v>
+        <v>21.9318028352664</v>
       </c>
       <c r="H430">
-        <v>36.400227010294692</v>
-      </c>
-    </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
+        <v>36.4002270102947</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8">
       <c r="A431" s="2">
         <v>49583</v>
       </c>
       <c r="D431">
-        <v>27.65159271335639</v>
+        <v>27.6515927133564</v>
       </c>
       <c r="E431">
-        <v>22.91357157146566</v>
+        <v>22.9135715714657</v>
       </c>
       <c r="F431">
-        <v>32.389613855247127</v>
+        <v>32.3896138552471</v>
       </c>
       <c r="G431">
-        <v>20.405414685280789</v>
+        <v>20.4054146852808</v>
       </c>
       <c r="H431">
-        <v>34.897770741431998</v>
-      </c>
-    </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
+        <v>34.897770741432</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8">
       <c r="A432" s="2">
         <v>49614</v>
       </c>
       <c r="D432">
-        <v>23.283550959383401</v>
+        <v>23.2835509593834</v>
       </c>
       <c r="E432">
-        <v>18.53884317639125</v>
+        <v>18.5388431763913</v>
       </c>
       <c r="F432">
-        <v>28.028258742375559</v>
+        <v>28.0282587423756</v>
       </c>
       <c r="G432">
-        <v>16.027146596224071</v>
+        <v>16.0271465962241</v>
       </c>
       <c r="H432">
-        <v>30.539955322542738</v>
-      </c>
-    </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30.5399553225427</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8">
       <c r="A433" s="2">
         <v>49644</v>
       </c>
       <c r="D433">
-        <v>23.592068118546361</v>
+        <v>23.5920681185464</v>
       </c>
       <c r="E433">
-        <v>18.84164452126101</v>
+        <v>18.841644521261</v>
       </c>
       <c r="F433">
-        <v>28.34249171583172</v>
+        <v>28.3424917158317</v>
       </c>
       <c r="G433">
-        <v>16.326922171779959</v>
+        <v>16.32692217178</v>
       </c>
       <c r="H433">
-        <v>30.857214065312771</v>
+        <v>30.8572140653128</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>